--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_0_23.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_0_23.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1387064.035735235</v>
+        <v>1380053.306619241</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2220068.892516701</v>
+        <v>2280223.653892729</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>419463.0933791245</v>
+        <v>419463.0933791243</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9628561.680508982</v>
+        <v>9628561.680508984</v>
       </c>
     </row>
     <row r="11">
@@ -656,25 +656,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C2" t="n">
         <v>389.2437464820987</v>
       </c>
       <c r="D2" t="n">
-        <v>5.00742883567591</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E2" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>412.725494085322</v>
+        <v>12.725494085322</v>
       </c>
       <c r="G2" t="n">
-        <v>409.0311279568768</v>
+        <v>9.031127956876844</v>
       </c>
       <c r="H2" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>136.9537457384598</v>
@@ -719,13 +719,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>257.1530835714996</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="3">
@@ -735,7 +735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>140.3146023933149</v>
+        <v>150.2783710965517</v>
       </c>
       <c r="C3" t="n">
         <v>149.1476881355087</v>
@@ -747,7 +747,7 @@
         <v>135.0820259802211</v>
       </c>
       <c r="F3" t="n">
-        <v>123.1874880556995</v>
+        <v>47.51043302805075</v>
       </c>
       <c r="G3" t="n">
         <v>118.8592197488542</v>
@@ -756,7 +756,7 @@
         <v>87.41444223540508</v>
       </c>
       <c r="I3" t="n">
-        <v>48.89338144820752</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>23.6778726709161</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>133.5813703291298</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>175.2139736830806</v>
       </c>
       <c r="U3" t="n">
         <v>207.9625118881446</v>
@@ -814,10 +814,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -829,13 +829,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -868,22 +868,22 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>78.15129269132882</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>87.95308749070819</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="5">
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -902,16 +902,16 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>412.725494085322</v>
       </c>
       <c r="G5" t="n">
-        <v>253.3013178105539</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>240.0787123369284</v>
       </c>
       <c r="I5" t="n">
         <v>136.9537457384598</v>
@@ -941,7 +941,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>164.8484195083599</v>
@@ -950,13 +950,13 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V5" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -975,10 +975,10 @@
         <v>150.2783710965517</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>149.1476881355087</v>
       </c>
       <c r="D6" t="n">
-        <v>128.7880777047345</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>135.0820259802211</v>
@@ -1029,10 +1029,10 @@
         <v>175.2139736830806</v>
       </c>
       <c r="U6" t="n">
-        <v>171.9324576373357</v>
+        <v>207.9625118881446</v>
       </c>
       <c r="V6" t="n">
-        <v>220.3146016126436</v>
+        <v>67.27299984147558</v>
       </c>
       <c r="W6" t="n">
         <v>227.816073408046</v>
@@ -1051,16 +1051,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1108,19 +1108,19 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>116.876383545772</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>263.319551727384</v>
+        <v>11.61260049965499</v>
       </c>
       <c r="W7" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="8">
@@ -1130,25 +1130,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F8" t="n">
-        <v>412.725494085322</v>
+        <v>12.725494085322</v>
       </c>
       <c r="G8" t="n">
-        <v>409.0311279568768</v>
+        <v>9.031127956876844</v>
       </c>
       <c r="H8" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>136.9537457384598</v>
@@ -1178,10 +1178,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1190,16 +1190,16 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X8" t="n">
-        <v>81.92664463823249</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y8" t="n">
-        <v>392.5258019886049</v>
+        <v>206.9604827631497</v>
       </c>
     </row>
     <row r="9">
@@ -1288,7 +1288,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>159.314994701633</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1345,19 +1345,19 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W10" t="n">
         <v>280.4970980481341</v>
       </c>
       <c r="X10" t="n">
-        <v>231.7395189948467</v>
+        <v>66.0314987001008</v>
       </c>
       <c r="Y10" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1376,19 +1376,19 @@
         <v>310.508405100767</v>
       </c>
       <c r="E11" t="n">
-        <v>327.479377239889</v>
+        <v>327.4793772398889</v>
       </c>
       <c r="F11" t="n">
         <v>341.6471816905901</v>
       </c>
       <c r="G11" t="n">
-        <v>337.9528155621449</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>249.7639075344423</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>65.87543334372789</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,25 +1418,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>93.77010711362801</v>
       </c>
       <c r="T11" t="n">
         <v>150.1872840214456</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>182.1168898750154</v>
       </c>
       <c r="V11" t="n">
-        <v>266.1196451494746</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>296.2107322866635</v>
       </c>
       <c r="X11" t="n">
-        <v>314.4797666215418</v>
+        <v>30.81515717968409</v>
       </c>
       <c r="Y11" t="n">
-        <v>321.447489593873</v>
+        <v>321.4474895938729</v>
       </c>
     </row>
     <row r="12">
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>112.2776261096563</v>
       </c>
       <c r="C13" t="n">
-        <v>97.42475435993876</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>82.99846957177847</v>
       </c>
       <c r="E13" t="n">
-        <v>61.90785314716644</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>84.67436304442485</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>82.84545313338904</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>60.68516871456097</v>
+        <v>60.68516871456096</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>51.58366707901689</v>
+        <v>51.58366707901688</v>
       </c>
       <c r="S13" t="n">
         <v>129.7096105845442</v>
@@ -1582,7 +1582,7 @@
         <v>162.2835489187163</v>
       </c>
       <c r="U13" t="n">
-        <v>211.5060914457862</v>
+        <v>211.5060914457861</v>
       </c>
       <c r="V13" t="n">
         <v>192.2412393326521</v>
@@ -1591,7 +1591,7 @@
         <v>209.4187856534022</v>
       </c>
       <c r="X13" t="n">
-        <v>160.6612066001148</v>
+        <v>122.8888085147494</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1604,16 +1604,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>147.7068767177474</v>
+        <v>325.411485859551</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>318.1654340873667</v>
       </c>
       <c r="D14" t="n">
         <v>310.508405100767</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>327.4793772398889</v>
       </c>
       <c r="F14" t="n">
         <v>341.6471816905901</v>
@@ -1622,7 +1622,7 @@
         <v>337.9528155621449</v>
       </c>
       <c r="H14" t="n">
-        <v>249.7639075344423</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,25 +1655,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>93.77010711362803</v>
+        <v>93.77010711362801</v>
       </c>
       <c r="T14" t="n">
         <v>150.1872840214456</v>
       </c>
       <c r="U14" t="n">
-        <v>182.1168898750155</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>267.6074288087849</v>
+        <v>172.3495380358469</v>
       </c>
       <c r="W14" t="n">
-        <v>296.2107322866635</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>314.4797666215418</v>
       </c>
       <c r="Y14" t="n">
-        <v>321.447489593873</v>
+        <v>321.4474895938729</v>
       </c>
     </row>
     <row r="15">
@@ -1765,25 +1765,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>97.42475435993876</v>
+        <v>97.42475435993875</v>
       </c>
       <c r="D16" t="n">
-        <v>82.99846957177849</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>82.9249116246576</v>
+        <v>82.92491162465758</v>
       </c>
       <c r="F16" t="n">
-        <v>84.67436304442487</v>
+        <v>84.67436304442485</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>95.49320096681699</v>
       </c>
       <c r="H16" t="n">
-        <v>82.84545313338904</v>
+        <v>82.84545313338903</v>
       </c>
       <c r="I16" t="n">
-        <v>12.56346662873409</v>
+        <v>60.68516871456096</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,16 +1810,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>51.58366707901689</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>129.7096105845442</v>
       </c>
       <c r="T16" t="n">
         <v>162.2835489187163</v>
       </c>
       <c r="U16" t="n">
-        <v>211.5060914457862</v>
+        <v>211.5060914457861</v>
       </c>
       <c r="V16" t="n">
         <v>192.2412393326521</v>
@@ -1828,10 +1828,10 @@
         <v>209.4187856534022</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>11.06025119039889</v>
       </c>
       <c r="Y16" t="n">
-        <v>149.8026281767912</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1847,7 +1847,7 @@
         <v>258.8837771665143</v>
       </c>
       <c r="D17" t="n">
-        <v>251.2267481799138</v>
+        <v>251.2267481799146</v>
       </c>
       <c r="E17" t="n">
         <v>268.1977203190365</v>
@@ -1907,7 +1907,7 @@
         <v>236.929075365811</v>
       </c>
       <c r="X17" t="n">
-        <v>255.1981097006893</v>
+        <v>255.1981097006894</v>
       </c>
       <c r="Y17" t="n">
         <v>262.1658326730205</v>
@@ -2330,13 +2330,13 @@
         <v>282.3655247697376</v>
       </c>
       <c r="G23" t="n">
-        <v>278.6711586412924</v>
+        <v>278.6711586412925</v>
       </c>
       <c r="H23" t="n">
         <v>190.4822506135899</v>
       </c>
       <c r="I23" t="n">
-        <v>6.593776422875436</v>
+        <v>6.593776422875465</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,10 +2366,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>34.48845019277556</v>
+        <v>34.48845019277559</v>
       </c>
       <c r="T23" t="n">
-        <v>90.90562710059288</v>
+        <v>90.90562710059314</v>
       </c>
       <c r="U23" t="n">
         <v>122.835232954163</v>
@@ -2378,10 +2378,10 @@
         <v>208.3257718879324</v>
       </c>
       <c r="W23" t="n">
-        <v>236.929075365811</v>
+        <v>236.9290753658111</v>
       </c>
       <c r="X23" t="n">
-        <v>255.1981097006893</v>
+        <v>255.1981097006894</v>
       </c>
       <c r="Y23" t="n">
         <v>262.1658326730205</v>
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>52.99596918880388</v>
+        <v>52.99596918880391</v>
       </c>
       <c r="C25" t="n">
-        <v>38.14309743908629</v>
+        <v>38.14309743908632</v>
       </c>
       <c r="D25" t="n">
-        <v>23.71681265092602</v>
+        <v>23.71681265092604</v>
       </c>
       <c r="E25" t="n">
-        <v>23.64325470380513</v>
+        <v>23.64325470380516</v>
       </c>
       <c r="F25" t="n">
-        <v>25.3927061235724</v>
+        <v>25.39270612357242</v>
       </c>
       <c r="G25" t="n">
-        <v>36.21154404596453</v>
+        <v>36.21154404596456</v>
       </c>
       <c r="H25" t="n">
-        <v>23.56379621253657</v>
+        <v>23.5637962125366</v>
       </c>
       <c r="I25" t="n">
-        <v>1.403511793708503</v>
+        <v>1.403511793708532</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,25 +2524,25 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>70.42795366369174</v>
+        <v>70.42795366369177</v>
       </c>
       <c r="T25" t="n">
-        <v>103.0018919978638</v>
+        <v>103.0018919978639</v>
       </c>
       <c r="U25" t="n">
         <v>152.2244345249337</v>
       </c>
       <c r="V25" t="n">
-        <v>132.9595824117996</v>
+        <v>132.9595824117997</v>
       </c>
       <c r="W25" t="n">
         <v>150.1371287325498</v>
       </c>
       <c r="X25" t="n">
-        <v>101.3795496792623</v>
+        <v>101.3795496792624</v>
       </c>
       <c r="Y25" t="n">
-        <v>90.52097125593869</v>
+        <v>90.52097125593872</v>
       </c>
     </row>
     <row r="26">
@@ -2573,7 +2573,7 @@
         <v>226.8509454548578</v>
       </c>
       <c r="I26" t="n">
-        <v>42.96247126414336</v>
+        <v>42.96247126414333</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>70.85714503404348</v>
+        <v>70.85714503404346</v>
       </c>
       <c r="T26" t="n">
         <v>127.274321941861</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>89.36466403007181</v>
+        <v>89.36466403007178</v>
       </c>
       <c r="C28" t="n">
-        <v>74.51179228035421</v>
+        <v>74.51179228035419</v>
       </c>
       <c r="D28" t="n">
-        <v>60.08550749219394</v>
+        <v>60.08550749219391</v>
       </c>
       <c r="E28" t="n">
-        <v>60.01194954507305</v>
+        <v>60.01194954507302</v>
       </c>
       <c r="F28" t="n">
-        <v>61.76140096484032</v>
+        <v>61.76140096484029</v>
       </c>
       <c r="G28" t="n">
-        <v>72.58023888723245</v>
+        <v>72.58023888723243</v>
       </c>
       <c r="H28" t="n">
-        <v>59.9324910538045</v>
+        <v>59.93249105380447</v>
       </c>
       <c r="I28" t="n">
-        <v>37.77220663497643</v>
+        <v>37.7722066349764</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,13 +2758,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>28.67070499943235</v>
+        <v>28.67070499943232</v>
       </c>
       <c r="S28" t="n">
-        <v>106.7966485049597</v>
+        <v>106.7966485049596</v>
       </c>
       <c r="T28" t="n">
-        <v>139.3705868391318</v>
+        <v>139.3705868391317</v>
       </c>
       <c r="U28" t="n">
         <v>188.5931293662016</v>
@@ -3026,28 +3026,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>290.1533409542119</v>
+        <v>283.7098784815729</v>
       </c>
       <c r="C32" t="n">
-        <v>282.9072891820277</v>
+        <v>276.4638267093886</v>
       </c>
       <c r="D32" t="n">
-        <v>275.2502601954279</v>
+        <v>268.8067977227889</v>
       </c>
       <c r="E32" t="n">
-        <v>292.2212323345499</v>
+        <v>285.7777698619109</v>
       </c>
       <c r="F32" t="n">
-        <v>306.389036785251</v>
+        <v>299.9455743126119</v>
       </c>
       <c r="G32" t="n">
-        <v>302.6946706568058</v>
+        <v>296.2512081841668</v>
       </c>
       <c r="H32" t="n">
-        <v>214.5057626291032</v>
+        <v>208.0623001564642</v>
       </c>
       <c r="I32" t="n">
-        <v>30.6172884383888</v>
+        <v>24.17382596574978</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>58.51196220828892</v>
+        <v>52.06849973564991</v>
       </c>
       <c r="T32" t="n">
-        <v>114.9291391161065</v>
+        <v>108.4856766434675</v>
       </c>
       <c r="U32" t="n">
-        <v>146.8587449696764</v>
+        <v>140.4152824970373</v>
       </c>
       <c r="V32" t="n">
-        <v>232.3492839034458</v>
+        <v>225.9058214308068</v>
       </c>
       <c r="W32" t="n">
-        <v>260.9525873813244</v>
+        <v>254.5091249086854</v>
       </c>
       <c r="X32" t="n">
-        <v>279.2216217162027</v>
+        <v>272.7781592435637</v>
       </c>
       <c r="Y32" t="n">
-        <v>286.1893446885339</v>
+        <v>279.7458822158949</v>
       </c>
     </row>
     <row r="33">
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>77.01948120431724</v>
+        <v>70.57601873167823</v>
       </c>
       <c r="C34" t="n">
-        <v>62.16660945459965</v>
+        <v>55.72314698196064</v>
       </c>
       <c r="D34" t="n">
-        <v>47.74032466643938</v>
+        <v>41.29686219380037</v>
       </c>
       <c r="E34" t="n">
-        <v>47.66676671931849</v>
+        <v>41.22330424667948</v>
       </c>
       <c r="F34" t="n">
-        <v>49.41621813908576</v>
+        <v>42.97275566644674</v>
       </c>
       <c r="G34" t="n">
-        <v>60.23505606147789</v>
+        <v>53.79159358883888</v>
       </c>
       <c r="H34" t="n">
-        <v>47.58730822804993</v>
+        <v>41.14384575541092</v>
       </c>
       <c r="I34" t="n">
-        <v>25.42702380922186</v>
+        <v>18.98356133658285</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>16.32552217367778</v>
+        <v>9.88205970103877</v>
       </c>
       <c r="S34" t="n">
-        <v>94.4514656792051</v>
+        <v>88.00800320656609</v>
       </c>
       <c r="T34" t="n">
-        <v>127.0254040133772</v>
+        <v>120.5819415407382</v>
       </c>
       <c r="U34" t="n">
-        <v>176.2479465404471</v>
+        <v>169.804484067808</v>
       </c>
       <c r="V34" t="n">
-        <v>156.983094427313</v>
+        <v>150.539631954674</v>
       </c>
       <c r="W34" t="n">
-        <v>174.1606407480631</v>
+        <v>167.7171782754241</v>
       </c>
       <c r="X34" t="n">
-        <v>125.4030616947757</v>
+        <v>118.9595992221367</v>
       </c>
       <c r="Y34" t="n">
-        <v>114.5444832714521</v>
+        <v>108.101020798813</v>
       </c>
     </row>
     <row r="35">
@@ -3278,13 +3278,13 @@
         <v>282.3655247697376</v>
       </c>
       <c r="G35" t="n">
-        <v>278.6711586412924</v>
+        <v>278.6711586412925</v>
       </c>
       <c r="H35" t="n">
         <v>190.4822506135899</v>
       </c>
       <c r="I35" t="n">
-        <v>6.593776422875436</v>
+        <v>6.593776422875465</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,10 +3314,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>34.48845019277556</v>
+        <v>34.48845019277559</v>
       </c>
       <c r="T35" t="n">
-        <v>90.90562710059311</v>
+        <v>90.90562710059314</v>
       </c>
       <c r="U35" t="n">
         <v>122.835232954163</v>
@@ -3326,10 +3326,10 @@
         <v>208.3257718879324</v>
       </c>
       <c r="W35" t="n">
-        <v>236.929075365811</v>
+        <v>236.9290753658111</v>
       </c>
       <c r="X35" t="n">
-        <v>255.1981097006893</v>
+        <v>255.1981097006894</v>
       </c>
       <c r="Y35" t="n">
         <v>262.1658326730205</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>52.99596918880388</v>
+        <v>52.99596918880391</v>
       </c>
       <c r="C37" t="n">
-        <v>38.14309743908629</v>
+        <v>38.14309743908632</v>
       </c>
       <c r="D37" t="n">
-        <v>23.71681265092602</v>
+        <v>23.71681265092604</v>
       </c>
       <c r="E37" t="n">
-        <v>23.64325470380513</v>
+        <v>23.64325470380516</v>
       </c>
       <c r="F37" t="n">
-        <v>25.3927061235724</v>
+        <v>25.39270612357242</v>
       </c>
       <c r="G37" t="n">
-        <v>36.21154404596453</v>
+        <v>36.21154404596456</v>
       </c>
       <c r="H37" t="n">
-        <v>23.56379621253657</v>
+        <v>23.5637962125366</v>
       </c>
       <c r="I37" t="n">
-        <v>1.403511793708503</v>
+        <v>1.403511793708532</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3472,25 +3472,25 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>70.42795366369174</v>
+        <v>70.42795366369177</v>
       </c>
       <c r="T37" t="n">
-        <v>103.0018919978638</v>
+        <v>103.0018919978639</v>
       </c>
       <c r="U37" t="n">
         <v>152.2244345249337</v>
       </c>
       <c r="V37" t="n">
-        <v>132.9595824117996</v>
+        <v>132.9595824117997</v>
       </c>
       <c r="W37" t="n">
         <v>150.1371287325498</v>
       </c>
       <c r="X37" t="n">
-        <v>101.3795496792623</v>
+        <v>101.3795496792624</v>
       </c>
       <c r="Y37" t="n">
-        <v>90.52097125593869</v>
+        <v>90.52097125593872</v>
       </c>
     </row>
     <row r="38">
@@ -3737,7 +3737,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>266.1298289386984</v>
+        <v>266.1298289386985</v>
       </c>
       <c r="C41" t="n">
         <v>258.8837771665143</v>
@@ -3746,7 +3746,7 @@
         <v>251.2267481799145</v>
       </c>
       <c r="E41" t="n">
-        <v>268.1977203190364</v>
+        <v>268.1977203190365</v>
       </c>
       <c r="F41" t="n">
         <v>282.3655247697376</v>
@@ -3758,7 +3758,7 @@
         <v>190.4822506135898</v>
       </c>
       <c r="I41" t="n">
-        <v>6.593776422875379</v>
+        <v>6.593776422875408</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,16 +3788,16 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>34.4884501927755</v>
+        <v>34.48845019277553</v>
       </c>
       <c r="T41" t="n">
-        <v>90.90562710059305</v>
+        <v>90.90562710059308</v>
       </c>
       <c r="U41" t="n">
-        <v>122.8352329541629</v>
+        <v>122.835232954163</v>
       </c>
       <c r="V41" t="n">
-        <v>208.3257718879323</v>
+        <v>208.3257718879324</v>
       </c>
       <c r="W41" t="n">
         <v>236.929075365811</v>
@@ -3806,7 +3806,7 @@
         <v>255.1981097006893</v>
       </c>
       <c r="Y41" t="n">
-        <v>262.1658326730204</v>
+        <v>262.1658326730205</v>
       </c>
     </row>
     <row r="42">
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>52.99596918880383</v>
+        <v>52.99596918880385</v>
       </c>
       <c r="C43" t="n">
-        <v>38.14309743908623</v>
+        <v>38.14309743908626</v>
       </c>
       <c r="D43" t="n">
-        <v>23.71681265092596</v>
+        <v>23.71681265092599</v>
       </c>
       <c r="E43" t="n">
-        <v>23.64325470380507</v>
+        <v>23.6432547038051</v>
       </c>
       <c r="F43" t="n">
-        <v>25.39270612357234</v>
+        <v>25.39270612357237</v>
       </c>
       <c r="G43" t="n">
-        <v>36.21154404596447</v>
+        <v>36.2115440459645</v>
       </c>
       <c r="H43" t="n">
-        <v>23.56379621253652</v>
+        <v>23.56379621253654</v>
       </c>
       <c r="I43" t="n">
-        <v>1.403511793708446</v>
+        <v>1.403511793708475</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3946,13 +3946,13 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>70.42795366369168</v>
+        <v>70.42795366369171</v>
       </c>
       <c r="T43" t="n">
         <v>103.0018919978638</v>
       </c>
       <c r="U43" t="n">
-        <v>152.2244345249336</v>
+        <v>152.2244345249337</v>
       </c>
       <c r="V43" t="n">
         <v>132.9595824117996</v>
@@ -3964,7 +3964,7 @@
         <v>101.3795496792623</v>
       </c>
       <c r="Y43" t="n">
-        <v>90.52097125593863</v>
+        <v>90.52097125593866</v>
       </c>
     </row>
     <row r="44">
@@ -3986,7 +3986,7 @@
         <v>268.1977203190364</v>
       </c>
       <c r="F44" t="n">
-        <v>282.3655247697376</v>
+        <v>282.3655247697382</v>
       </c>
       <c r="G44" t="n">
         <v>278.6711586412924</v>
@@ -4043,7 +4043,7 @@
         <v>255.1981097006893</v>
       </c>
       <c r="Y44" t="n">
-        <v>262.1658326730214</v>
+        <v>262.1658326730204</v>
       </c>
     </row>
     <row r="45">
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2136.790056023269</v>
+        <v>980.4333798454863</v>
       </c>
       <c r="C2" t="n">
-        <v>1743.614554526199</v>
+        <v>587.2578783484169</v>
       </c>
       <c r="D2" t="n">
-        <v>1738.556545601274</v>
+        <v>201.8167495650845</v>
       </c>
       <c r="E2" t="n">
-        <v>1335.973020717819</v>
+        <v>201.8167495650845</v>
       </c>
       <c r="F2" t="n">
-        <v>919.0785822477962</v>
+        <v>188.9627151354664</v>
       </c>
       <c r="G2" t="n">
-        <v>505.9158267357994</v>
+        <v>179.8403636638736</v>
       </c>
       <c r="H2" t="n">
-        <v>181.8327763022901</v>
+        <v>179.8403636638736</v>
       </c>
       <c r="I2" t="n">
-        <v>43.49565939475494</v>
+        <v>41.50324675633843</v>
       </c>
       <c r="J2" t="n">
-        <v>188.145432303583</v>
+        <v>41.50324675633843</v>
       </c>
       <c r="K2" t="n">
-        <v>188.145432303583</v>
+        <v>400.4856027838003</v>
       </c>
       <c r="L2" t="n">
-        <v>681.4657240221119</v>
+        <v>400.4856027838003</v>
       </c>
       <c r="M2" t="n">
-        <v>1201.710316572948</v>
+        <v>914.0882813934884</v>
       </c>
       <c r="N2" t="n">
-        <v>1201.710316572948</v>
+        <v>1427.690960003176</v>
       </c>
       <c r="O2" t="n">
-        <v>1641.749917465277</v>
+        <v>1542.129285544451</v>
       </c>
       <c r="P2" t="n">
-        <v>1989.937409596798</v>
+        <v>1890.316777675973</v>
       </c>
       <c r="Q2" t="n">
-        <v>2174.782969737747</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="R2" t="n">
-        <v>2136.790056023269</v>
+        <v>2037.169424102443</v>
       </c>
       <c r="S2" t="n">
-        <v>2136.790056023269</v>
+        <v>2037.169424102443</v>
       </c>
       <c r="T2" t="n">
-        <v>2136.790056023269</v>
+        <v>2037.169424102443</v>
       </c>
       <c r="U2" t="n">
-        <v>2136.790056023269</v>
+        <v>2037.169424102443</v>
       </c>
       <c r="V2" t="n">
-        <v>2136.790056023269</v>
+        <v>2037.169424102443</v>
       </c>
       <c r="W2" t="n">
-        <v>2136.790056023269</v>
+        <v>1777.418834636282</v>
       </c>
       <c r="X2" t="n">
-        <v>2136.790056023269</v>
+        <v>1777.418834636282</v>
       </c>
       <c r="Y2" t="n">
-        <v>2136.790056023269</v>
+        <v>1380.928125556883</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>842.8616425347859</v>
+        <v>715.0405061833833</v>
       </c>
       <c r="C3" t="n">
-        <v>692.2074120948781</v>
+        <v>564.3862757434755</v>
       </c>
       <c r="D3" t="n">
-        <v>562.1184447163585</v>
+        <v>434.2973083649558</v>
       </c>
       <c r="E3" t="n">
-        <v>425.6719538272462</v>
+        <v>297.8508174758435</v>
       </c>
       <c r="F3" t="n">
-        <v>301.240147710378</v>
+        <v>249.8604810838731</v>
       </c>
       <c r="G3" t="n">
-        <v>181.1803297822424</v>
+        <v>129.8006631557375</v>
       </c>
       <c r="H3" t="n">
-        <v>92.88291338284336</v>
+        <v>41.50324675633843</v>
       </c>
       <c r="I3" t="n">
-        <v>43.49565939475494</v>
+        <v>41.50324675633843</v>
       </c>
       <c r="J3" t="n">
-        <v>156.6106416144823</v>
+        <v>41.50324675633843</v>
       </c>
       <c r="K3" t="n">
-        <v>156.6106416144823</v>
+        <v>361.2423928185649</v>
       </c>
       <c r="L3" t="n">
-        <v>156.6106416144823</v>
+        <v>844.8084787168782</v>
       </c>
       <c r="M3" t="n">
-        <v>694.8694266245747</v>
+        <v>844.8084787168782</v>
       </c>
       <c r="N3" t="n">
-        <v>1018.276226875478</v>
+        <v>1155.938290490836</v>
       </c>
       <c r="O3" t="n">
-        <v>1534.796509466459</v>
+        <v>1669.540969100524</v>
       </c>
       <c r="P3" t="n">
-        <v>1940.417878182856</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="Q3" t="n">
-        <v>2174.782969737747</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="R3" t="n">
-        <v>2150.865926635811</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="S3" t="n">
-        <v>2015.93524953568</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="T3" t="n">
-        <v>2015.93524953568</v>
+        <v>1898.17852601583</v>
       </c>
       <c r="U3" t="n">
-        <v>1805.872106214322</v>
+        <v>1688.115382694472</v>
       </c>
       <c r="V3" t="n">
-        <v>1583.332104585389</v>
+        <v>1465.575381065539</v>
       </c>
       <c r="W3" t="n">
-        <v>1353.214858718676</v>
+        <v>1235.458135198826</v>
       </c>
       <c r="X3" t="n">
-        <v>1163.907781068688</v>
+        <v>1046.151057548837</v>
       </c>
       <c r="Y3" t="n">
-        <v>984.5935641441949</v>
+        <v>866.8368406243446</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>344.8441386582315</v>
+        <v>211.7083646903492</v>
       </c>
       <c r="C4" t="n">
-        <v>344.8441386582315</v>
+        <v>41.50324675633843</v>
       </c>
       <c r="D4" t="n">
-        <v>344.8441386582315</v>
+        <v>41.50324675633843</v>
       </c>
       <c r="E4" t="n">
-        <v>344.8441386582315</v>
+        <v>41.50324675633843</v>
       </c>
       <c r="F4" t="n">
-        <v>344.8441386582315</v>
+        <v>41.50324675633843</v>
       </c>
       <c r="G4" t="n">
-        <v>176.5900847576771</v>
+        <v>41.50324675633843</v>
       </c>
       <c r="H4" t="n">
-        <v>176.5900847576771</v>
+        <v>41.50324675633843</v>
       </c>
       <c r="I4" t="n">
-        <v>43.49565939475494</v>
+        <v>41.50324675633843</v>
       </c>
       <c r="J4" t="n">
-        <v>43.49565939475494</v>
+        <v>41.50324675633843</v>
       </c>
       <c r="K4" t="n">
-        <v>125.3307005046968</v>
+        <v>123.3382878662803</v>
       </c>
       <c r="L4" t="n">
-        <v>289.4583403784966</v>
+        <v>287.4659277400801</v>
       </c>
       <c r="M4" t="n">
-        <v>475.7499187167606</v>
+        <v>473.7575060783441</v>
       </c>
       <c r="N4" t="n">
-        <v>658.9395527479699</v>
+        <v>656.9471401095534</v>
       </c>
       <c r="O4" t="n">
-        <v>821.6443197896779</v>
+        <v>819.6519071512614</v>
       </c>
       <c r="P4" t="n">
-        <v>941.5204855662564</v>
+        <v>939.52807292784</v>
       </c>
       <c r="Q4" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="R4" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="S4" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="T4" t="n">
-        <v>709.2236301045415</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="U4" t="n">
-        <v>423.7848383464424</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="V4" t="n">
-        <v>344.8441386582315</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="W4" t="n">
-        <v>344.8441386582315</v>
+        <v>854.1087667820241</v>
       </c>
       <c r="X4" t="n">
-        <v>344.8441386582315</v>
+        <v>620.0284445650071</v>
       </c>
       <c r="Y4" t="n">
-        <v>344.8441386582315</v>
+        <v>396.9163833816505</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1257.170656636125</v>
+        <v>1252.401307481174</v>
       </c>
       <c r="C5" t="n">
-        <v>1257.170656636125</v>
+        <v>1252.401307481174</v>
       </c>
       <c r="D5" t="n">
-        <v>1257.170656636125</v>
+        <v>1252.401307481174</v>
       </c>
       <c r="E5" t="n">
-        <v>854.5871317526698</v>
+        <v>1252.401307481174</v>
       </c>
       <c r="F5" t="n">
-        <v>437.6926932826476</v>
+        <v>835.5068690111517</v>
       </c>
       <c r="G5" t="n">
-        <v>181.8327763022901</v>
+        <v>422.3441134991548</v>
       </c>
       <c r="H5" t="n">
-        <v>181.8327763022901</v>
+        <v>179.8403636638736</v>
       </c>
       <c r="I5" t="n">
-        <v>43.49565939475494</v>
+        <v>41.50324675633843</v>
       </c>
       <c r="J5" t="n">
-        <v>43.49565939475494</v>
+        <v>41.50324675633843</v>
       </c>
       <c r="K5" t="n">
-        <v>175.3530084793352</v>
+        <v>41.50324675633843</v>
       </c>
       <c r="L5" t="n">
-        <v>668.673300197864</v>
+        <v>534.8235384748673</v>
       </c>
       <c r="M5" t="n">
-        <v>1206.932085207956</v>
+        <v>936.6744981739565</v>
       </c>
       <c r="N5" t="n">
-        <v>1734.743368845418</v>
+        <v>1450.277176783645</v>
       </c>
       <c r="O5" t="n">
-        <v>2174.782969737747</v>
+        <v>1890.316777675973</v>
       </c>
       <c r="P5" t="n">
-        <v>2174.782969737747</v>
+        <v>1890.316777675973</v>
       </c>
       <c r="Q5" t="n">
-        <v>2174.782969737747</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="R5" t="n">
-        <v>2136.790056023269</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="S5" t="n">
-        <v>1970.276500964319</v>
+        <v>1908.648782757972</v>
       </c>
       <c r="T5" t="n">
-        <v>1970.276500964319</v>
+        <v>1908.648782757972</v>
       </c>
       <c r="U5" t="n">
-        <v>1970.276500964319</v>
+        <v>1652.896053192571</v>
       </c>
       <c r="V5" t="n">
-        <v>1628.169691667838</v>
+        <v>1652.896053192571</v>
       </c>
       <c r="W5" t="n">
-        <v>1257.170656636125</v>
+        <v>1652.896053192571</v>
       </c>
       <c r="X5" t="n">
-        <v>1257.170656636125</v>
+        <v>1652.896053192571</v>
       </c>
       <c r="Y5" t="n">
-        <v>1257.170656636125</v>
+        <v>1652.896053192571</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>692.2074120948781</v>
+        <v>710.7802625178498</v>
       </c>
       <c r="C6" t="n">
-        <v>692.2074120948781</v>
+        <v>560.126032077942</v>
       </c>
       <c r="D6" t="n">
-        <v>562.1184447163585</v>
+        <v>560.126032077942</v>
       </c>
       <c r="E6" t="n">
-        <v>425.6719538272462</v>
+        <v>423.6795411888297</v>
       </c>
       <c r="F6" t="n">
-        <v>301.240147710378</v>
+        <v>299.2477350719615</v>
       </c>
       <c r="G6" t="n">
-        <v>181.1803297822424</v>
+        <v>179.1879171438259</v>
       </c>
       <c r="H6" t="n">
-        <v>92.88291338284336</v>
+        <v>90.89050074442684</v>
       </c>
       <c r="I6" t="n">
-        <v>43.49565939475494</v>
+        <v>41.50324675633843</v>
       </c>
       <c r="J6" t="n">
-        <v>156.6106416144823</v>
+        <v>154.6182289760658</v>
       </c>
       <c r="K6" t="n">
-        <v>476.3497876767087</v>
+        <v>474.3573750382923</v>
       </c>
       <c r="L6" t="n">
-        <v>959.915873575022</v>
+        <v>957.9234609366056</v>
       </c>
       <c r="M6" t="n">
-        <v>1498.174658585114</v>
+        <v>1471.526139546294</v>
       </c>
       <c r="N6" t="n">
-        <v>2036.433443595206</v>
+        <v>1985.128818155982</v>
       </c>
       <c r="O6" t="n">
-        <v>2174.782969737747</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="P6" t="n">
-        <v>2174.782969737747</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="Q6" t="n">
-        <v>2174.782969737747</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="R6" t="n">
-        <v>2150.865926635811</v>
+        <v>2051.245294714986</v>
       </c>
       <c r="S6" t="n">
-        <v>2015.93524953568</v>
+        <v>1916.314617614855</v>
       </c>
       <c r="T6" t="n">
-        <v>1838.951437734589</v>
+        <v>1739.330805813763</v>
       </c>
       <c r="U6" t="n">
-        <v>1665.282288605967</v>
+        <v>1529.267662492405</v>
       </c>
       <c r="V6" t="n">
-        <v>1442.742286977034</v>
+        <v>1461.315137400005</v>
       </c>
       <c r="W6" t="n">
-        <v>1212.625041110321</v>
+        <v>1231.197891533292</v>
       </c>
       <c r="X6" t="n">
-        <v>1023.317963460332</v>
+        <v>1041.890813883304</v>
       </c>
       <c r="Y6" t="n">
-        <v>844.0037465358395</v>
+        <v>862.5765969588111</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>43.49565939475494</v>
+        <v>522.900289928632</v>
       </c>
       <c r="C7" t="n">
-        <v>43.49565939475494</v>
+        <v>352.6951719946212</v>
       </c>
       <c r="D7" t="n">
-        <v>43.49565939475494</v>
+        <v>197.0620588971359</v>
       </c>
       <c r="E7" t="n">
-        <v>43.49565939475494</v>
+        <v>41.50324675633843</v>
       </c>
       <c r="F7" t="n">
-        <v>43.49565939475494</v>
+        <v>41.50324675633843</v>
       </c>
       <c r="G7" t="n">
-        <v>43.49565939475494</v>
+        <v>41.50324675633843</v>
       </c>
       <c r="H7" t="n">
-        <v>43.49565939475494</v>
+        <v>41.50324675633843</v>
       </c>
       <c r="I7" t="n">
-        <v>43.49565939475494</v>
+        <v>41.50324675633843</v>
       </c>
       <c r="J7" t="n">
-        <v>43.49565939475494</v>
+        <v>41.50324675633843</v>
       </c>
       <c r="K7" t="n">
-        <v>125.3307005046968</v>
+        <v>123.3382878662803</v>
       </c>
       <c r="L7" t="n">
-        <v>289.4583403784966</v>
+        <v>287.4659277400801</v>
       </c>
       <c r="M7" t="n">
-        <v>475.7499187167606</v>
+        <v>473.7575060783441</v>
       </c>
       <c r="N7" t="n">
-        <v>658.9395527479699</v>
+        <v>656.9471401095534</v>
       </c>
       <c r="O7" t="n">
-        <v>821.6443197896779</v>
+        <v>819.6519071512614</v>
       </c>
       <c r="P7" t="n">
-        <v>941.5204855662564</v>
+        <v>939.52807292784</v>
       </c>
       <c r="Q7" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="R7" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="S7" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="T7" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="U7" t="n">
-        <v>826.88572885977</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="V7" t="n">
-        <v>560.9063836805942</v>
+        <v>931.2203698032899</v>
       </c>
       <c r="W7" t="n">
-        <v>277.5759816117719</v>
+        <v>931.2203698032899</v>
       </c>
       <c r="X7" t="n">
-        <v>43.49565939475494</v>
+        <v>931.2203698032899</v>
       </c>
       <c r="Y7" t="n">
-        <v>43.49565939475494</v>
+        <v>708.1083086199333</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4778,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1339.790331424607</v>
+        <v>995.6511265770774</v>
       </c>
       <c r="C8" t="n">
-        <v>1339.790331424607</v>
+        <v>995.6511265770774</v>
       </c>
       <c r="D8" t="n">
-        <v>1339.790331424607</v>
+        <v>610.2099977937452</v>
       </c>
       <c r="E8" t="n">
-        <v>1339.790331424607</v>
+        <v>207.6264729102897</v>
       </c>
       <c r="F8" t="n">
-        <v>922.895892954585</v>
+        <v>194.7724384806716</v>
       </c>
       <c r="G8" t="n">
-        <v>509.7331374425881</v>
+        <v>185.6500870090788</v>
       </c>
       <c r="H8" t="n">
         <v>185.6500870090788</v>
@@ -4805,19 +4805,19 @@
         <v>191.9627430103717</v>
       </c>
       <c r="K8" t="n">
-        <v>550.9450990378335</v>
+        <v>371.4442765563904</v>
       </c>
       <c r="L8" t="n">
-        <v>1044.265390756362</v>
+        <v>864.7645682749193</v>
       </c>
       <c r="M8" t="n">
-        <v>1590.266290800943</v>
+        <v>864.7645682749193</v>
       </c>
       <c r="N8" t="n">
-        <v>1590.266290800943</v>
+        <v>1392.575851912381</v>
       </c>
       <c r="O8" t="n">
-        <v>2030.305891693271</v>
+        <v>1832.61545280471</v>
       </c>
       <c r="P8" t="n">
         <v>2180.802944936232</v>
@@ -4826,28 +4826,28 @@
         <v>2365.64850507718</v>
       </c>
       <c r="R8" t="n">
-        <v>2327.655591362702</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="S8" t="n">
-        <v>2161.142036303753</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="T8" t="n">
-        <v>2161.142036303753</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="U8" t="n">
-        <v>2161.142036303753</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="V8" t="n">
-        <v>1819.035227007271</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="W8" t="n">
-        <v>1819.035227007271</v>
+        <v>1994.649470045468</v>
       </c>
       <c r="X8" t="n">
-        <v>1736.281040504006</v>
+        <v>1605.196864978524</v>
       </c>
       <c r="Y8" t="n">
-        <v>1339.790331424607</v>
+        <v>1396.145872288474</v>
       </c>
     </row>
     <row r="9">
@@ -4881,19 +4881,19 @@
         <v>47.31297010154367</v>
       </c>
       <c r="J9" t="n">
-        <v>47.31297010154367</v>
+        <v>160.4279523212711</v>
       </c>
       <c r="K9" t="n">
-        <v>367.0521161637701</v>
+        <v>480.1670983834975</v>
       </c>
       <c r="L9" t="n">
-        <v>850.6182020620834</v>
+        <v>963.7331842818107</v>
       </c>
       <c r="M9" t="n">
-        <v>1436.116207068686</v>
+        <v>1549.231189288413</v>
       </c>
       <c r="N9" t="n">
-        <v>2021.614212075288</v>
+        <v>2134.729194295015</v>
       </c>
       <c r="O9" t="n">
         <v>2365.64850507718</v>
@@ -4993,19 +4993,19 @@
         <v>948.7599926430961</v>
       </c>
       <c r="U10" t="n">
-        <v>948.7599926430961</v>
+        <v>663.3212008849971</v>
       </c>
       <c r="V10" t="n">
-        <v>948.7599926430961</v>
+        <v>397.3418557058213</v>
       </c>
       <c r="W10" t="n">
-        <v>665.4295905742738</v>
+        <v>114.011453636999</v>
       </c>
       <c r="X10" t="n">
-        <v>431.3492683572568</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="Y10" t="n">
-        <v>208.2372071739002</v>
+        <v>47.31297010154361</v>
       </c>
     </row>
     <row r="11">
@@ -5015,25 +5015,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1714.395101119022</v>
+        <v>1691.856237801876</v>
       </c>
       <c r="C11" t="n">
-        <v>1393.015874768147</v>
+        <v>1370.477011451001</v>
       </c>
       <c r="D11" t="n">
-        <v>1079.371021131009</v>
+        <v>1056.832157813862</v>
       </c>
       <c r="E11" t="n">
-        <v>748.5837713937468</v>
+        <v>726.0449080766007</v>
       </c>
       <c r="F11" t="n">
-        <v>403.4856080699185</v>
+        <v>380.9467447527722</v>
       </c>
       <c r="G11" t="n">
-        <v>62.11912770411553</v>
+        <v>380.9467447527722</v>
       </c>
       <c r="H11" t="n">
-        <v>62.11912770411553</v>
+        <v>128.6599694654568</v>
       </c>
       <c r="I11" t="n">
         <v>62.11912770411553</v>
@@ -5066,25 +5066,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S11" t="n">
-        <v>3105.956385205776</v>
+        <v>3011.239105293021</v>
       </c>
       <c r="T11" t="n">
-        <v>2954.252057911387</v>
+        <v>2859.534777998631</v>
       </c>
       <c r="U11" t="n">
-        <v>2954.252057911387</v>
+        <v>2675.578323579424</v>
       </c>
       <c r="V11" t="n">
-        <v>2685.44433553818</v>
+        <v>2675.578323579424</v>
       </c>
       <c r="W11" t="n">
-        <v>2685.44433553818</v>
+        <v>2376.375563693905</v>
       </c>
       <c r="X11" t="n">
-        <v>2367.78800561743</v>
+        <v>2345.249142300284</v>
       </c>
       <c r="Y11" t="n">
-        <v>2043.093571684225</v>
+        <v>2020.554708367079</v>
       </c>
     </row>
     <row r="12">
@@ -5118,25 +5118,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J12" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K12" t="n">
-        <v>62.11912770411553</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L12" t="n">
-        <v>62.11912770411553</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M12" t="n">
-        <v>568.1699486069232</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="N12" t="n">
-        <v>1223.947919817482</v>
+        <v>2262.088962721623</v>
       </c>
       <c r="O12" t="n">
-        <v>1740.468202408463</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="P12" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q12" t="n">
         <v>2380.454662679751</v>
@@ -5173,22 +5173,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>368.0415815981107</v>
+        <v>292.7837755129684</v>
       </c>
       <c r="C13" t="n">
-        <v>269.6327388102938</v>
+        <v>292.7837755129684</v>
       </c>
       <c r="D13" t="n">
-        <v>269.6327388102938</v>
+        <v>208.946937561677</v>
       </c>
       <c r="E13" t="n">
-        <v>207.099553813156</v>
+        <v>208.946937561677</v>
       </c>
       <c r="F13" t="n">
-        <v>207.099553813156</v>
+        <v>123.4172779208438</v>
       </c>
       <c r="G13" t="n">
-        <v>207.099553813156</v>
+        <v>123.4172779208438</v>
       </c>
       <c r="H13" t="n">
         <v>123.4172779208438</v>
@@ -5197,19 +5197,19 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J13" t="n">
-        <v>102.7129143774626</v>
+        <v>102.7129143774627</v>
       </c>
       <c r="K13" t="n">
         <v>254.9154847581891</v>
       </c>
       <c r="L13" t="n">
-        <v>489.4106539027734</v>
+        <v>489.4106539027735</v>
       </c>
       <c r="M13" t="n">
-        <v>746.0697615118221</v>
+        <v>746.0697615118222</v>
       </c>
       <c r="N13" t="n">
-        <v>999.6269248138159</v>
+        <v>999.626924813816</v>
       </c>
       <c r="O13" t="n">
         <v>1232.699221126309</v>
@@ -5236,13 +5236,13 @@
         <v>741.8597555915622</v>
       </c>
       <c r="W13" t="n">
-        <v>530.3256286689336</v>
+        <v>530.3256286689337</v>
       </c>
       <c r="X13" t="n">
-        <v>368.0415815981107</v>
+        <v>406.1955190580758</v>
       </c>
       <c r="Y13" t="n">
-        <v>368.0415815981107</v>
+        <v>406.1955190580758</v>
       </c>
     </row>
     <row r="14">
@@ -5252,34 +5252,34 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1314.515400318201</v>
+        <v>1714.395101119022</v>
       </c>
       <c r="C14" t="n">
-        <v>1314.515400318201</v>
+        <v>1393.015874768147</v>
       </c>
       <c r="D14" t="n">
-        <v>1000.870546681062</v>
+        <v>1079.371021131009</v>
       </c>
       <c r="E14" t="n">
-        <v>1000.870546681062</v>
+        <v>748.583771393747</v>
       </c>
       <c r="F14" t="n">
-        <v>655.772383357234</v>
+        <v>403.4856080699187</v>
       </c>
       <c r="G14" t="n">
-        <v>314.405902991431</v>
+        <v>62.11912770411573</v>
       </c>
       <c r="H14" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411573</v>
       </c>
       <c r="I14" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411573</v>
       </c>
       <c r="J14" t="n">
-        <v>206.7689006129436</v>
+        <v>206.7689006129438</v>
       </c>
       <c r="K14" t="n">
-        <v>565.7512566404055</v>
+        <v>565.7512566404057</v>
       </c>
       <c r="L14" t="n">
         <v>1059.071548358934</v>
@@ -5309,19 +5309,19 @@
         <v>2859.534777998631</v>
       </c>
       <c r="U14" t="n">
-        <v>2675.578323579424</v>
+        <v>2859.534777998631</v>
       </c>
       <c r="V14" t="n">
-        <v>2405.267789429136</v>
+        <v>2685.44433553818</v>
       </c>
       <c r="W14" t="n">
-        <v>2106.065029543617</v>
+        <v>2685.44433553818</v>
       </c>
       <c r="X14" t="n">
-        <v>1788.408699622868</v>
+        <v>2367.78800561743</v>
       </c>
       <c r="Y14" t="n">
-        <v>1463.714265689663</v>
+        <v>2043.093571684225</v>
       </c>
     </row>
     <row r="15">
@@ -5355,25 +5355,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J15" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K15" t="n">
-        <v>62.11912770411553</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L15" t="n">
-        <v>62.11912770411553</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M15" t="n">
-        <v>568.1699486069232</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="N15" t="n">
-        <v>1223.947919817482</v>
+        <v>2262.088962721623</v>
       </c>
       <c r="O15" t="n">
-        <v>1740.468202408463</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="P15" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q15" t="n">
         <v>2380.454662679751</v>
@@ -5410,46 +5410,46 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>510.0296513030274</v>
+        <v>571.2583719907702</v>
       </c>
       <c r="C16" t="n">
-        <v>411.6208085152106</v>
+        <v>472.8495292029534</v>
       </c>
       <c r="D16" t="n">
-        <v>327.7839705639192</v>
+        <v>472.8495292029534</v>
       </c>
       <c r="E16" t="n">
-        <v>244.0214335693155</v>
+        <v>389.0869922083497</v>
       </c>
       <c r="F16" t="n">
-        <v>158.4917739284824</v>
+        <v>303.5573325675165</v>
       </c>
       <c r="G16" t="n">
-        <v>158.4917739284824</v>
+        <v>207.0995538131559</v>
       </c>
       <c r="H16" t="n">
-        <v>74.80949803617017</v>
+        <v>123.4172779208438</v>
       </c>
       <c r="I16" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J16" t="n">
-        <v>102.7129143774625</v>
+        <v>102.7129143774627</v>
       </c>
       <c r="K16" t="n">
-        <v>254.915484758189</v>
+        <v>254.9154847581891</v>
       </c>
       <c r="L16" t="n">
-        <v>489.4106539027733</v>
+        <v>489.4106539027734</v>
       </c>
       <c r="M16" t="n">
-        <v>746.069761511822</v>
+        <v>746.0697615118222</v>
       </c>
       <c r="N16" t="n">
-        <v>999.6269248138158</v>
+        <v>999.626924813816</v>
       </c>
       <c r="O16" t="n">
-        <v>1232.699221126308</v>
+        <v>1232.699221126309</v>
       </c>
       <c r="P16" t="n">
         <v>1422.942916173672</v>
@@ -5458,28 +5458,28 @@
         <v>1496.732641814507</v>
       </c>
       <c r="R16" t="n">
-        <v>1444.627927593278</v>
+        <v>1496.732641814507</v>
       </c>
       <c r="S16" t="n">
-        <v>1444.627927593278</v>
+        <v>1365.712833143251</v>
       </c>
       <c r="T16" t="n">
-        <v>1280.705150907706</v>
+        <v>1201.790056457679</v>
       </c>
       <c r="U16" t="n">
-        <v>1067.062634295801</v>
+        <v>988.1475398457735</v>
       </c>
       <c r="V16" t="n">
-        <v>872.8795642628188</v>
+        <v>793.9644698127915</v>
       </c>
       <c r="W16" t="n">
-        <v>661.3454373401903</v>
+        <v>582.4303428901629</v>
       </c>
       <c r="X16" t="n">
-        <v>661.3454373401903</v>
+        <v>571.2583719907702</v>
       </c>
       <c r="Y16" t="n">
-        <v>510.0296513030274</v>
+        <v>571.2583719907702</v>
       </c>
     </row>
     <row r="17">
@@ -5489,34 +5489,34 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1614.059487414176</v>
+        <v>1614.059487414177</v>
       </c>
       <c r="C17" t="n">
-        <v>1352.560722599515</v>
+        <v>1352.560722599516</v>
       </c>
       <c r="D17" t="n">
-        <v>1098.796330498593</v>
+        <v>1098.796330498592</v>
       </c>
       <c r="E17" t="n">
-        <v>827.8895422975456</v>
+        <v>827.8895422975454</v>
       </c>
       <c r="F17" t="n">
-        <v>542.6718405099318</v>
+        <v>542.6718405099316</v>
       </c>
       <c r="G17" t="n">
-        <v>261.1858216803434</v>
+        <v>261.1858216803432</v>
       </c>
       <c r="H17" t="n">
-        <v>68.77950792924243</v>
+        <v>68.77950792924223</v>
       </c>
       <c r="I17" t="n">
-        <v>62.11912770411573</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J17" t="n">
-        <v>206.7689006129438</v>
+        <v>206.7689006129436</v>
       </c>
       <c r="K17" t="n">
-        <v>565.7512566404057</v>
+        <v>565.7512566404055</v>
       </c>
       <c r="L17" t="n">
         <v>1059.071548358934</v>
@@ -5543,10 +5543,10 @@
         <v>3071.119566829235</v>
       </c>
       <c r="T17" t="n">
-        <v>2979.29570107106</v>
+        <v>2979.295701071061</v>
       </c>
       <c r="U17" t="n">
-        <v>2855.219708188067</v>
+        <v>2855.219708188068</v>
       </c>
       <c r="V17" t="n">
         <v>2644.789635573994</v>
@@ -5555,10 +5555,10 @@
         <v>2405.46733722469</v>
       </c>
       <c r="X17" t="n">
-        <v>2147.691468840155</v>
+        <v>2147.691468840156</v>
       </c>
       <c r="Y17" t="n">
-        <v>1882.877496443165</v>
+        <v>1882.877496443166</v>
       </c>
     </row>
     <row r="18">
@@ -5674,13 +5674,13 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K19" t="n">
-        <v>143.9541688140574</v>
+        <v>273.0105384364859</v>
       </c>
       <c r="L19" t="n">
-        <v>437.1381783102856</v>
+        <v>437.1381783102858</v>
       </c>
       <c r="M19" t="n">
-        <v>623.4297566485496</v>
+        <v>623.4297566485498</v>
       </c>
       <c r="N19" t="n">
         <v>812.1990332879427</v>
@@ -5732,16 +5732,16 @@
         <v>1352.560722599516</v>
       </c>
       <c r="D20" t="n">
-        <v>1098.796330498593</v>
+        <v>1098.796330498592</v>
       </c>
       <c r="E20" t="n">
-        <v>827.8895422975456</v>
+        <v>827.8895422975454</v>
       </c>
       <c r="F20" t="n">
-        <v>542.6718405099318</v>
+        <v>542.6718405099316</v>
       </c>
       <c r="G20" t="n">
-        <v>261.1858216803435</v>
+        <v>261.1858216803432</v>
       </c>
       <c r="H20" t="n">
         <v>68.77950792924224</v>
@@ -5762,7 +5762,7 @@
         <v>1605.072448403515</v>
       </c>
       <c r="N20" t="n">
-        <v>2132.883732040977</v>
+        <v>2132.883732040978</v>
       </c>
       <c r="O20" t="n">
         <v>2572.923332933306</v>
@@ -5786,7 +5786,7 @@
         <v>2855.219708188068</v>
       </c>
       <c r="V20" t="n">
-        <v>2644.789635573995</v>
+        <v>2644.789635573994</v>
       </c>
       <c r="W20" t="n">
         <v>2405.467337224691</v>
@@ -5795,7 +5795,7 @@
         <v>2147.691468840156</v>
       </c>
       <c r="Y20" t="n">
-        <v>1882.877496443166</v>
+        <v>1882.877496443165</v>
       </c>
     </row>
     <row r="21">
@@ -5841,13 +5841,13 @@
         <v>1606.310991511064</v>
       </c>
       <c r="N21" t="n">
-        <v>2146.089571124861</v>
+        <v>2262.088962721623</v>
       </c>
       <c r="O21" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="P21" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q21" t="n">
         <v>2380.454662679751</v>
@@ -5908,22 +5908,22 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J22" t="n">
-        <v>62.11912770411553</v>
+        <v>67.69877031229927</v>
       </c>
       <c r="K22" t="n">
-        <v>143.9541688140574</v>
+        <v>149.5338114222411</v>
       </c>
       <c r="L22" t="n">
-        <v>308.0818086878572</v>
+        <v>313.6614512960409</v>
       </c>
       <c r="M22" t="n">
-        <v>623.4297566485498</v>
+        <v>499.953029634305</v>
       </c>
       <c r="N22" t="n">
-        <v>806.6193906797589</v>
+        <v>812.1990332879427</v>
       </c>
       <c r="O22" t="n">
-        <v>969.3241577214669</v>
+        <v>974.9038003296507</v>
       </c>
       <c r="P22" t="n">
         <v>1094.779966106229</v>
@@ -5978,10 +5978,10 @@
         <v>542.6718405099314</v>
       </c>
       <c r="G23" t="n">
-        <v>261.1858216803431</v>
+        <v>261.185821680343</v>
       </c>
       <c r="H23" t="n">
-        <v>68.77950792924223</v>
+        <v>68.77950792924227</v>
       </c>
       <c r="I23" t="n">
         <v>62.11912770411553</v>
@@ -6008,13 +6008,13 @@
         <v>2921.110825064828</v>
       </c>
       <c r="Q23" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205777</v>
       </c>
       <c r="R23" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205777</v>
       </c>
       <c r="S23" t="n">
-        <v>3071.119566829235</v>
+        <v>3071.119566829236</v>
       </c>
       <c r="T23" t="n">
         <v>2979.295701071061</v>
@@ -6023,10 +6023,10 @@
         <v>2855.219708188068</v>
       </c>
       <c r="V23" t="n">
-        <v>2644.789635573994</v>
+        <v>2644.789635573995</v>
       </c>
       <c r="W23" t="n">
-        <v>2405.46733722469</v>
+        <v>2405.467337224691</v>
       </c>
       <c r="X23" t="n">
         <v>2147.691468840156</v>
@@ -6078,13 +6078,13 @@
         <v>1606.310991511064</v>
       </c>
       <c r="N24" t="n">
-        <v>2146.089571124861</v>
+        <v>2262.088962721623</v>
       </c>
       <c r="O24" t="n">
-        <v>2146.089571124861</v>
+        <v>2262.088962721623</v>
       </c>
       <c r="P24" t="n">
-        <v>2146.089571124861</v>
+        <v>2262.088962721623</v>
       </c>
       <c r="Q24" t="n">
         <v>2380.454662679751</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>235.9319791885594</v>
+        <v>235.9319791885596</v>
       </c>
       <c r="C25" t="n">
-        <v>197.4035979369571</v>
+        <v>197.4035979369573</v>
       </c>
       <c r="D25" t="n">
-        <v>173.4472215218803</v>
+        <v>173.4472215218805</v>
       </c>
       <c r="E25" t="n">
-        <v>149.5651460634913</v>
+        <v>149.5651460634914</v>
       </c>
       <c r="F25" t="n">
-        <v>123.9159479588727</v>
+        <v>123.9159479588728</v>
       </c>
       <c r="G25" t="n">
-        <v>87.33863074072673</v>
+        <v>87.33863074072679</v>
       </c>
       <c r="H25" t="n">
-        <v>63.53681638462917</v>
+        <v>63.5368163846292</v>
       </c>
       <c r="I25" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J25" t="n">
-        <v>62.11912770411553</v>
+        <v>161.4017547291066</v>
       </c>
       <c r="K25" t="n">
-        <v>143.9541688140574</v>
+        <v>243.2367958390484</v>
       </c>
       <c r="L25" t="n">
-        <v>437.1381783102856</v>
+        <v>442.71782091847</v>
       </c>
       <c r="M25" t="n">
-        <v>623.4297566485496</v>
+        <v>629.009399256734</v>
       </c>
       <c r="N25" t="n">
-        <v>806.6193906797589</v>
+        <v>812.1990332879432</v>
       </c>
       <c r="O25" t="n">
-        <v>969.3241577214669</v>
+        <v>974.9038003296512</v>
       </c>
       <c r="P25" t="n">
-        <v>1094.779966106229</v>
+        <v>1094.77996610623</v>
       </c>
       <c r="Q25" t="n">
-        <v>1098.20216247628</v>
+        <v>1098.202162476281</v>
       </c>
       <c r="R25" t="n">
-        <v>1098.20216247628</v>
+        <v>1098.202162476281</v>
       </c>
       <c r="S25" t="n">
         <v>1027.062815341238</v>
       </c>
       <c r="T25" t="n">
-        <v>923.0205001918806</v>
+        <v>923.020500191881</v>
       </c>
       <c r="U25" t="n">
-        <v>769.25844511619</v>
+        <v>769.2584451161904</v>
       </c>
       <c r="V25" t="n">
-        <v>634.9558366194227</v>
+        <v>634.9558366194231</v>
       </c>
       <c r="W25" t="n">
-        <v>483.3021712330088</v>
+        <v>483.3021712330091</v>
       </c>
       <c r="X25" t="n">
-        <v>380.8985856984004</v>
+        <v>380.8985856984007</v>
       </c>
       <c r="Y25" t="n">
-        <v>289.4632611974523</v>
+        <v>289.4632611974525</v>
       </c>
     </row>
     <row r="26">
@@ -6200,7 +6200,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1882.457606424153</v>
+        <v>1882.457606424152</v>
       </c>
       <c r="C26" t="n">
         <v>1584.222786214271</v>
@@ -6209,46 +6209,46 @@
         <v>1293.722338718128</v>
       </c>
       <c r="E26" t="n">
-        <v>986.0794951218605</v>
+        <v>986.0794951218604</v>
       </c>
       <c r="F26" t="n">
-        <v>664.1257379390266</v>
+        <v>664.1257379390265</v>
       </c>
       <c r="G26" t="n">
         <v>345.9036637142181</v>
       </c>
       <c r="H26" t="n">
-        <v>116.7612945678971</v>
+        <v>116.761294567897</v>
       </c>
       <c r="I26" t="n">
-        <v>73.36485894755026</v>
+        <v>73.36485894755025</v>
       </c>
       <c r="J26" t="n">
-        <v>311.0659935859517</v>
+        <v>303.7986541368127</v>
       </c>
       <c r="K26" t="n">
-        <v>755.8323718938487</v>
+        <v>662.7810101642746</v>
       </c>
       <c r="L26" t="n">
-        <v>1342.204025341951</v>
+        <v>1249.152663612377</v>
       </c>
       <c r="M26" t="n">
-        <v>1888.204925386532</v>
+        <v>1888.204925386531</v>
       </c>
       <c r="N26" t="n">
-        <v>2509.067570753567</v>
+        <v>2509.067570753566</v>
       </c>
       <c r="O26" t="n">
-        <v>3042.158533375469</v>
+        <v>3042.158533375468</v>
       </c>
       <c r="P26" t="n">
-        <v>3483.397387236564</v>
+        <v>3483.397387236563</v>
       </c>
       <c r="Q26" t="n">
-        <v>3668.242947377513</v>
+        <v>3668.242947377512</v>
       </c>
       <c r="R26" t="n">
-        <v>3668.242947377513</v>
+        <v>3668.242947377512</v>
       </c>
       <c r="S26" t="n">
         <v>3596.670073605751</v>
@@ -6257,16 +6257,16 @@
         <v>3468.110152452356</v>
       </c>
       <c r="U26" t="n">
-        <v>3307.298104174144</v>
+        <v>3307.298104174143</v>
       </c>
       <c r="V26" t="n">
-        <v>3060.131976164851</v>
+        <v>3060.13197616485</v>
       </c>
       <c r="W26" t="n">
-        <v>2784.073622420327</v>
+        <v>2784.073622420326</v>
       </c>
       <c r="X26" t="n">
-        <v>2489.561698640572</v>
+        <v>2489.561698640571</v>
       </c>
       <c r="Y26" t="n">
         <v>2188.011670848361</v>
@@ -6297,10 +6297,10 @@
         <v>211.0495293350377</v>
       </c>
       <c r="H27" t="n">
-        <v>122.7521129356387</v>
+        <v>122.7521129356386</v>
       </c>
       <c r="I27" t="n">
-        <v>73.36485894755026</v>
+        <v>73.36485894755025</v>
       </c>
       <c r="J27" t="n">
         <v>186.4798411672776</v>
@@ -6358,31 +6358,31 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>504.3300981985352</v>
+        <v>504.3300981985351</v>
       </c>
       <c r="C28" t="n">
-        <v>429.0656615517128</v>
+        <v>429.065661551713</v>
       </c>
       <c r="D28" t="n">
-        <v>368.3732297414156</v>
+        <v>368.3732297414161</v>
       </c>
       <c r="E28" t="n">
-        <v>307.7550988878068</v>
+        <v>307.7550988878066</v>
       </c>
       <c r="F28" t="n">
-        <v>245.3698453879681</v>
+        <v>245.369845387968</v>
       </c>
       <c r="G28" t="n">
         <v>172.056472774602</v>
       </c>
       <c r="H28" t="n">
-        <v>111.5186030232843</v>
+        <v>111.5186030232841</v>
       </c>
       <c r="I28" t="n">
-        <v>73.36485894755026</v>
+        <v>73.36485894755025</v>
       </c>
       <c r="J28" t="n">
-        <v>136.6424780796861</v>
+        <v>136.6424780796862</v>
       </c>
       <c r="K28" t="n">
         <v>311.5288809192012</v>
@@ -6391,7 +6391,7 @@
         <v>568.7078825225741</v>
       </c>
       <c r="M28" t="n">
-        <v>848.0508225904115</v>
+        <v>848.0508225904113</v>
       </c>
       <c r="N28" t="n">
         <v>1124.291818351194</v>
@@ -6424,10 +6424,10 @@
         <v>861.908456428645</v>
       </c>
       <c r="X28" t="n">
-        <v>722.7688154988165</v>
+        <v>722.7688154988164</v>
       </c>
       <c r="Y28" t="n">
-        <v>594.5974356026481</v>
+        <v>594.597435602648</v>
       </c>
     </row>
     <row r="29">
@@ -6446,13 +6446,13 @@
         <v>1293.722338718128</v>
       </c>
       <c r="E29" t="n">
-        <v>986.0794951218606</v>
+        <v>986.0794951218604</v>
       </c>
       <c r="F29" t="n">
-        <v>664.1257379390267</v>
+        <v>664.1257379390265</v>
       </c>
       <c r="G29" t="n">
-        <v>345.9036637142183</v>
+        <v>345.9036637142181</v>
       </c>
       <c r="H29" t="n">
         <v>116.7612945678971</v>
@@ -6461,37 +6461,37 @@
         <v>73.36485894755026</v>
       </c>
       <c r="J29" t="n">
-        <v>218.0146318563784</v>
+        <v>303.7986541368136</v>
       </c>
       <c r="K29" t="n">
-        <v>606.9665031662622</v>
+        <v>662.7810101642755</v>
       </c>
       <c r="L29" t="n">
-        <v>1193.338156614364</v>
+        <v>1249.152663612378</v>
       </c>
       <c r="M29" t="n">
-        <v>1832.390418388518</v>
+        <v>1888.204925386532</v>
       </c>
       <c r="N29" t="n">
-        <v>2453.253063755554</v>
+        <v>2416.016209023994</v>
       </c>
       <c r="O29" t="n">
-        <v>2893.292664647882</v>
+        <v>2949.107171645896</v>
       </c>
       <c r="P29" t="n">
-        <v>3334.531518508978</v>
+        <v>3390.346025506991</v>
       </c>
       <c r="Q29" t="n">
-        <v>3612.4284403795</v>
+        <v>3668.242947377513</v>
       </c>
       <c r="R29" t="n">
         <v>3668.242947377513</v>
       </c>
       <c r="S29" t="n">
-        <v>3596.670073605751</v>
+        <v>3596.670073605752</v>
       </c>
       <c r="T29" t="n">
-        <v>3468.110152452356</v>
+        <v>3468.110152452357</v>
       </c>
       <c r="U29" t="n">
         <v>3307.298104174144</v>
@@ -6552,13 +6552,13 @@
         <v>1617.556722754498</v>
       </c>
       <c r="N30" t="n">
-        <v>2157.335302368295</v>
+        <v>2273.334693965057</v>
       </c>
       <c r="O30" t="n">
-        <v>2157.335302368295</v>
+        <v>2391.700393923186</v>
       </c>
       <c r="P30" t="n">
-        <v>2157.335302368295</v>
+        <v>2391.700393923186</v>
       </c>
       <c r="Q30" t="n">
         <v>2391.700393923186</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>504.3300981985353</v>
+        <v>504.3300981985352</v>
       </c>
       <c r="C31" t="n">
         <v>429.0656615517128</v>
       </c>
       <c r="D31" t="n">
-        <v>368.3732297414159</v>
+        <v>368.3732297414156</v>
       </c>
       <c r="E31" t="n">
         <v>307.7550988878068</v>
       </c>
       <c r="F31" t="n">
-        <v>245.369845387968</v>
+        <v>245.3698453879681</v>
       </c>
       <c r="G31" t="n">
         <v>172.056472774602</v>
       </c>
       <c r="H31" t="n">
-        <v>111.5186030232842</v>
+        <v>111.5186030232843</v>
       </c>
       <c r="I31" t="n">
         <v>73.36485894755026</v>
@@ -6628,7 +6628,7 @@
         <v>568.7078825225741</v>
       </c>
       <c r="M31" t="n">
-        <v>848.0508225904114</v>
+        <v>848.0508225904115</v>
       </c>
       <c r="N31" t="n">
         <v>1124.291818351194</v>
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1791.35112422213</v>
+        <v>1743.798875918589</v>
       </c>
       <c r="C32" t="n">
-        <v>1505.586185654425</v>
+        <v>1464.542485303045</v>
       </c>
       <c r="D32" t="n">
-        <v>1227.555619800457</v>
+        <v>1193.020467401238</v>
       </c>
       <c r="E32" t="n">
-        <v>932.3826578463663</v>
+        <v>904.3560533993077</v>
       </c>
       <c r="F32" t="n">
-        <v>622.8987823057087</v>
+        <v>601.3807258108108</v>
       </c>
       <c r="G32" t="n">
-        <v>317.1465897230764</v>
+        <v>302.1370811803392</v>
       </c>
       <c r="H32" t="n">
-        <v>100.4741022189321</v>
+        <v>91.97314162835497</v>
       </c>
       <c r="I32" t="n">
-        <v>69.54754824076159</v>
+        <v>67.55513560234508</v>
       </c>
       <c r="J32" t="n">
-        <v>299.6075039955957</v>
+        <v>212.2049085111732</v>
       </c>
       <c r="K32" t="n">
-        <v>763.8629527501278</v>
+        <v>571.187264538635</v>
       </c>
       <c r="L32" t="n">
-        <v>1362.456337195727</v>
+        <v>1176.159676832147</v>
       </c>
       <c r="M32" t="n">
-        <v>1908.457237240308</v>
+        <v>1722.160576876728</v>
       </c>
       <c r="N32" t="n">
-        <v>2436.26852087777</v>
+        <v>2249.97186051419</v>
       </c>
       <c r="O32" t="n">
-        <v>2876.308121770098</v>
+        <v>2690.011461406518</v>
       </c>
       <c r="P32" t="n">
-        <v>3224.49561390162</v>
+        <v>3149.851074113023</v>
       </c>
       <c r="Q32" t="n">
-        <v>3409.341174042569</v>
+        <v>3377.756780117254</v>
       </c>
       <c r="R32" t="n">
-        <v>3477.377412038079</v>
+        <v>3377.756780117254</v>
       </c>
       <c r="S32" t="n">
-        <v>3418.274419908495</v>
+        <v>3325.16233593983</v>
       </c>
       <c r="T32" t="n">
-        <v>3302.184380397276</v>
+        <v>3215.580844380772</v>
       </c>
       <c r="U32" t="n">
-        <v>3153.842213761239</v>
+        <v>3073.747225696896</v>
       </c>
       <c r="V32" t="n">
-        <v>2919.145967394122</v>
+        <v>2845.55952728194</v>
       </c>
       <c r="W32" t="n">
-        <v>2655.557495291774</v>
+        <v>2588.479603131752</v>
       </c>
       <c r="X32" t="n">
-        <v>2373.515453154196</v>
+        <v>2312.946108946334</v>
       </c>
       <c r="Y32" t="n">
-        <v>2084.435307004162</v>
+        <v>2030.374510748461</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6753,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>868.9135313807926</v>
+        <v>866.9211187423761</v>
       </c>
       <c r="C33" t="n">
-        <v>718.2593009408848</v>
+        <v>716.2668883024683</v>
       </c>
       <c r="D33" t="n">
-        <v>588.1703335623652</v>
+        <v>586.1779209239486</v>
       </c>
       <c r="E33" t="n">
-        <v>451.7238426732528</v>
+        <v>449.7314300348363</v>
       </c>
       <c r="F33" t="n">
-        <v>327.2920365563846</v>
+        <v>325.2996239179681</v>
       </c>
       <c r="G33" t="n">
-        <v>207.2322186282491</v>
+        <v>205.2398059898326</v>
       </c>
       <c r="H33" t="n">
-        <v>118.93480222885</v>
+        <v>116.9423895904335</v>
       </c>
       <c r="I33" t="n">
-        <v>69.54754824076159</v>
+        <v>67.55513560234508</v>
       </c>
       <c r="J33" t="n">
-        <v>182.662530460489</v>
+        <v>180.6701178220725</v>
       </c>
       <c r="K33" t="n">
-        <v>502.4016765227154</v>
+        <v>500.4092638842989</v>
       </c>
       <c r="L33" t="n">
-        <v>985.9677624210287</v>
+        <v>983.9753497826121</v>
       </c>
       <c r="M33" t="n">
-        <v>1613.73941204771</v>
+        <v>1611.746999409293</v>
       </c>
       <c r="N33" t="n">
-        <v>2269.517383258269</v>
+        <v>2267.524970619852</v>
       </c>
       <c r="O33" t="n">
-        <v>2269.517383258269</v>
+        <v>2385.890670577981</v>
       </c>
       <c r="P33" t="n">
-        <v>2387.883083216398</v>
+        <v>2385.890670577981</v>
       </c>
       <c r="Q33" t="n">
-        <v>2387.883083216398</v>
+        <v>2385.890670577981</v>
       </c>
       <c r="R33" t="n">
-        <v>2363.966040114462</v>
+        <v>2361.973627476046</v>
       </c>
       <c r="S33" t="n">
-        <v>2229.035363014331</v>
+        <v>2227.042950375915</v>
       </c>
       <c r="T33" t="n">
-        <v>2052.051551213239</v>
+        <v>2050.059138574823</v>
       </c>
       <c r="U33" t="n">
-        <v>1841.988407891881</v>
+        <v>1839.995995253465</v>
       </c>
       <c r="V33" t="n">
-        <v>1619.448406262948</v>
+        <v>1617.455993624532</v>
       </c>
       <c r="W33" t="n">
-        <v>1389.331160396235</v>
+        <v>1387.338747757819</v>
       </c>
       <c r="X33" t="n">
-        <v>1200.024082746247</v>
+        <v>1198.03167010783</v>
       </c>
       <c r="Y33" t="n">
-        <v>1020.709865821754</v>
+        <v>1018.717453183337</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>413.2236159965121</v>
+        <v>365.6713676929712</v>
       </c>
       <c r="C34" t="n">
-        <v>350.429060991866</v>
+        <v>309.3853606404857</v>
       </c>
       <c r="D34" t="n">
-        <v>302.2065108237454</v>
+        <v>267.6713584245257</v>
       </c>
       <c r="E34" t="n">
-        <v>254.0582616123126</v>
+        <v>226.0316571652536</v>
       </c>
       <c r="F34" t="n">
-        <v>204.1428897546502</v>
+        <v>182.6248332597518</v>
       </c>
       <c r="G34" t="n">
-        <v>143.2993987834604</v>
+        <v>128.2898902407226</v>
       </c>
       <c r="H34" t="n">
-        <v>95.23141067431902</v>
+        <v>86.7304500837419</v>
       </c>
       <c r="I34" t="n">
-        <v>69.54754824076159</v>
+        <v>67.55513560234508</v>
       </c>
       <c r="J34" t="n">
-        <v>145.0468983703944</v>
+        <v>149.4335135798905</v>
       </c>
       <c r="K34" t="n">
-        <v>332.1550322074065</v>
+        <v>342.9206752648154</v>
       </c>
       <c r="L34" t="n">
-        <v>514.80999600762</v>
+        <v>612.8479737408619</v>
       </c>
       <c r="M34" t="n">
-        <v>806.3746670729544</v>
+        <v>799.1395520791259</v>
       </c>
       <c r="N34" t="n">
-        <v>1094.837393831234</v>
+        <v>982.3291861103351</v>
       </c>
       <c r="O34" t="n">
-        <v>1362.815253600012</v>
+        <v>1145.033953152043</v>
       </c>
       <c r="P34" t="n">
-        <v>1482.691419376591</v>
+        <v>1264.910118928622</v>
       </c>
       <c r="Q34" t="n">
-        <v>1486.113615746642</v>
+        <v>1379.984435873655</v>
       </c>
       <c r="R34" t="n">
-        <v>1469.623189308583</v>
+        <v>1370.002557387758</v>
       </c>
       <c r="S34" t="n">
-        <v>1374.217668420497</v>
+        <v>1281.105584451832</v>
       </c>
       <c r="T34" t="n">
-        <v>1245.909179518096</v>
+        <v>1159.305643501592</v>
       </c>
       <c r="U34" t="n">
-        <v>1067.880950689362</v>
+        <v>987.7859626250179</v>
       </c>
       <c r="V34" t="n">
-        <v>909.3121684395506</v>
+        <v>835.7257283273674</v>
       </c>
       <c r="W34" t="n">
-        <v>733.3923293000929</v>
+        <v>666.3144371400703</v>
       </c>
       <c r="X34" t="n">
-        <v>606.7225700124407</v>
+        <v>546.1532258045786</v>
       </c>
       <c r="Y34" t="n">
-        <v>491.0210717584487</v>
+        <v>436.9602755027472</v>
       </c>
     </row>
     <row r="35">
@@ -6914,7 +6914,7 @@
         <v>1614.059487414177</v>
       </c>
       <c r="C35" t="n">
-        <v>1352.560722599515</v>
+        <v>1352.560722599516</v>
       </c>
       <c r="D35" t="n">
         <v>1098.796330498592</v>
@@ -6929,7 +6929,7 @@
         <v>261.1858216803425</v>
       </c>
       <c r="H35" t="n">
-        <v>68.77950792924223</v>
+        <v>68.77950792924226</v>
       </c>
       <c r="I35" t="n">
         <v>62.11912770411553</v>
@@ -6971,10 +6971,10 @@
         <v>2855.219708188068</v>
       </c>
       <c r="V35" t="n">
-        <v>2644.789635573994</v>
+        <v>2644.789635573995</v>
       </c>
       <c r="W35" t="n">
-        <v>2405.46733722469</v>
+        <v>2405.467337224691</v>
       </c>
       <c r="X35" t="n">
         <v>2147.691468840156</v>
@@ -7029,7 +7029,7 @@
         <v>2262.088962721623</v>
       </c>
       <c r="O36" t="n">
-        <v>2262.088962721623</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="P36" t="n">
         <v>2380.454662679751</v>
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>235.9319791885594</v>
+        <v>235.9319791885596</v>
       </c>
       <c r="C37" t="n">
-        <v>197.4035979369571</v>
+        <v>197.4035979369573</v>
       </c>
       <c r="D37" t="n">
-        <v>173.4472215218803</v>
+        <v>173.4472215218805</v>
       </c>
       <c r="E37" t="n">
-        <v>149.5651460634913</v>
+        <v>149.5651460634914</v>
       </c>
       <c r="F37" t="n">
-        <v>123.9159479588727</v>
+        <v>123.9159479588728</v>
       </c>
       <c r="G37" t="n">
-        <v>87.33863074072673</v>
+        <v>87.33863074072679</v>
       </c>
       <c r="H37" t="n">
-        <v>63.53681638462917</v>
+        <v>63.5368163846292</v>
       </c>
       <c r="I37" t="n">
         <v>62.11912770411553</v>
@@ -7102,43 +7102,43 @@
         <v>308.0818086878572</v>
       </c>
       <c r="M37" t="n">
-        <v>494.3733870261212</v>
+        <v>623.4297566485498</v>
       </c>
       <c r="N37" t="n">
-        <v>677.5630210573304</v>
+        <v>806.6193906797589</v>
       </c>
       <c r="O37" t="n">
-        <v>840.2677880990384</v>
+        <v>969.3241577214669</v>
       </c>
       <c r="P37" t="n">
-        <v>1087.158956162812</v>
+        <v>1089.200323498045</v>
       </c>
       <c r="Q37" t="n">
-        <v>1090.581152532863</v>
+        <v>1092.622519868096</v>
       </c>
       <c r="R37" t="n">
-        <v>1098.20216247628</v>
+        <v>1098.202162476281</v>
       </c>
       <c r="S37" t="n">
         <v>1027.062815341238</v>
       </c>
       <c r="T37" t="n">
-        <v>923.0205001918806</v>
+        <v>923.020500191881</v>
       </c>
       <c r="U37" t="n">
-        <v>769.25844511619</v>
+        <v>769.2584451161904</v>
       </c>
       <c r="V37" t="n">
-        <v>634.9558366194227</v>
+        <v>634.9558366194231</v>
       </c>
       <c r="W37" t="n">
-        <v>483.3021712330088</v>
+        <v>483.3021712330091</v>
       </c>
       <c r="X37" t="n">
-        <v>380.8985856984004</v>
+        <v>380.8985856984007</v>
       </c>
       <c r="Y37" t="n">
-        <v>289.4632611974523</v>
+        <v>289.4632611974525</v>
       </c>
     </row>
     <row r="38">
@@ -7151,19 +7151,19 @@
         <v>1614.059487414177</v>
       </c>
       <c r="C38" t="n">
-        <v>1352.560722599516</v>
+        <v>1352.560722599515</v>
       </c>
       <c r="D38" t="n">
         <v>1098.796330498592</v>
       </c>
       <c r="E38" t="n">
-        <v>827.8895422975452</v>
+        <v>827.8895422975447</v>
       </c>
       <c r="F38" t="n">
-        <v>542.6718405099314</v>
+        <v>542.6718405099309</v>
       </c>
       <c r="G38" t="n">
-        <v>261.185821680343</v>
+        <v>261.1858216803425</v>
       </c>
       <c r="H38" t="n">
         <v>68.77950792924223</v>
@@ -7199,7 +7199,7 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S38" t="n">
-        <v>3071.119566829236</v>
+        <v>3071.119566829235</v>
       </c>
       <c r="T38" t="n">
         <v>2979.295701071061</v>
@@ -7211,7 +7211,7 @@
         <v>2644.789635573994</v>
       </c>
       <c r="W38" t="n">
-        <v>2405.467337224691</v>
+        <v>2405.46733722469</v>
       </c>
       <c r="X38" t="n">
         <v>2147.691468840156</v>
@@ -7263,13 +7263,13 @@
         <v>1606.310991511064</v>
       </c>
       <c r="N39" t="n">
-        <v>2146.089571124861</v>
+        <v>2262.088962721623</v>
       </c>
       <c r="O39" t="n">
-        <v>2146.089571124861</v>
+        <v>2262.088962721623</v>
       </c>
       <c r="P39" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q39" t="n">
         <v>2380.454662679751</v>
@@ -7333,22 +7333,22 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K40" t="n">
-        <v>149.5338114222409</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L40" t="n">
-        <v>313.6614512960407</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M40" t="n">
-        <v>499.9530296343048</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N40" t="n">
-        <v>683.142663665514</v>
+        <v>677.5630210573304</v>
       </c>
       <c r="O40" t="n">
-        <v>845.8474307072221</v>
+        <v>969.3241577214669</v>
       </c>
       <c r="P40" t="n">
-        <v>965.7235964838006</v>
+        <v>1094.779966106229</v>
       </c>
       <c r="Q40" t="n">
         <v>1098.20216247628</v>
@@ -7385,25 +7385,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1614.059487414176</v>
+        <v>1614.059487414177</v>
       </c>
       <c r="C41" t="n">
-        <v>1352.560722599515</v>
+        <v>1352.560722599516</v>
       </c>
       <c r="D41" t="n">
-        <v>1098.796330498591</v>
+        <v>1098.796330498593</v>
       </c>
       <c r="E41" t="n">
-        <v>827.8895422975447</v>
+        <v>827.8895422975456</v>
       </c>
       <c r="F41" t="n">
-        <v>542.6718405099309</v>
+        <v>542.6718405099318</v>
       </c>
       <c r="G41" t="n">
-        <v>261.1858216803425</v>
+        <v>261.1858216803435</v>
       </c>
       <c r="H41" t="n">
-        <v>68.77950792924219</v>
+        <v>68.77950792924221</v>
       </c>
       <c r="I41" t="n">
         <v>62.11912770411553</v>
@@ -7415,13 +7415,13 @@
         <v>565.7512566404055</v>
       </c>
       <c r="L41" t="n">
-        <v>1059.071548358934</v>
+        <v>1059.071548358935</v>
       </c>
       <c r="M41" t="n">
-        <v>1605.072448403515</v>
+        <v>1605.072448403516</v>
       </c>
       <c r="N41" t="n">
-        <v>2132.883732040977</v>
+        <v>2132.883732040978</v>
       </c>
       <c r="O41" t="n">
         <v>2572.923332933306</v>
@@ -7442,16 +7442,16 @@
         <v>2979.295701071061</v>
       </c>
       <c r="U41" t="n">
-        <v>2855.219708188067</v>
+        <v>2855.219708188068</v>
       </c>
       <c r="V41" t="n">
         <v>2644.789635573994</v>
       </c>
       <c r="W41" t="n">
-        <v>2405.467337224689</v>
+        <v>2405.467337224691</v>
       </c>
       <c r="X41" t="n">
-        <v>2147.691468840155</v>
+        <v>2147.691468840156</v>
       </c>
       <c r="Y41" t="n">
         <v>1882.877496443165</v>
@@ -7497,13 +7497,13 @@
         <v>978.5393418843826</v>
       </c>
       <c r="M42" t="n">
-        <v>1606.310991511064</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="N42" t="n">
-        <v>2146.089571124861</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O42" t="n">
-        <v>2146.089571124861</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P42" t="n">
         <v>2146.089571124861</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>235.931979188559</v>
+        <v>235.9319791885592</v>
       </c>
       <c r="C43" t="n">
-        <v>197.4035979369568</v>
+        <v>197.4035979369569</v>
       </c>
       <c r="D43" t="n">
-        <v>173.44722152188</v>
+        <v>173.4472215218802</v>
       </c>
       <c r="E43" t="n">
-        <v>149.5651460634911</v>
+        <v>149.5651460634912</v>
       </c>
       <c r="F43" t="n">
         <v>123.9159479588726</v>
       </c>
       <c r="G43" t="n">
-        <v>87.33863074072661</v>
+        <v>87.33863074072667</v>
       </c>
       <c r="H43" t="n">
-        <v>63.53681638462912</v>
+        <v>63.53681638462915</v>
       </c>
       <c r="I43" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J43" t="n">
-        <v>67.69877031229814</v>
+        <v>67.69877031229885</v>
       </c>
       <c r="K43" t="n">
-        <v>149.53381142224</v>
+        <v>278.5901810446693</v>
       </c>
       <c r="L43" t="n">
-        <v>313.6614512960398</v>
+        <v>442.7178209184691</v>
       </c>
       <c r="M43" t="n">
-        <v>499.9530296343038</v>
+        <v>629.0093992567331</v>
       </c>
       <c r="N43" t="n">
-        <v>683.1426636655131</v>
+        <v>812.1990332879423</v>
       </c>
       <c r="O43" t="n">
-        <v>974.9038003296498</v>
+        <v>974.9038003296503</v>
       </c>
       <c r="P43" t="n">
-        <v>1094.779966106228</v>
+        <v>1094.779966106229</v>
       </c>
       <c r="Q43" t="n">
-        <v>1098.202162476279</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="R43" t="n">
-        <v>1098.202162476279</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="S43" t="n">
-        <v>1027.062815341237</v>
+        <v>1027.062815341238</v>
       </c>
       <c r="T43" t="n">
-        <v>923.0205001918799</v>
+        <v>923.0205001918803</v>
       </c>
       <c r="U43" t="n">
-        <v>769.2584451161894</v>
+        <v>769.2584451161897</v>
       </c>
       <c r="V43" t="n">
-        <v>634.9558366194221</v>
+        <v>634.9558366194225</v>
       </c>
       <c r="W43" t="n">
-        <v>483.3021712330083</v>
+        <v>483.3021712330086</v>
       </c>
       <c r="X43" t="n">
-        <v>380.8985856983999</v>
+        <v>380.8985856984002</v>
       </c>
       <c r="Y43" t="n">
-        <v>289.4632611974517</v>
+        <v>289.463261197452</v>
       </c>
     </row>
     <row r="44">
@@ -7628,10 +7628,10 @@
         <v>1352.560722599516</v>
       </c>
       <c r="D44" t="n">
-        <v>1098.796330498592</v>
+        <v>1098.796330498593</v>
       </c>
       <c r="E44" t="n">
-        <v>827.8895422975452</v>
+        <v>827.8895422975457</v>
       </c>
       <c r="F44" t="n">
         <v>542.6718405099314</v>
@@ -7737,13 +7737,13 @@
         <v>1606.310991511064</v>
       </c>
       <c r="N45" t="n">
-        <v>2146.089571124861</v>
+        <v>2262.088962721623</v>
       </c>
       <c r="O45" t="n">
-        <v>2146.089571124861</v>
+        <v>2262.088962721623</v>
       </c>
       <c r="P45" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q45" t="n">
         <v>2380.454662679751</v>
@@ -7807,25 +7807,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K46" t="n">
-        <v>149.5338114222403</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L46" t="n">
-        <v>313.6614512960401</v>
+        <v>435.0968109750514</v>
       </c>
       <c r="M46" t="n">
-        <v>629.0093992567326</v>
+        <v>621.3883893133154</v>
       </c>
       <c r="N46" t="n">
-        <v>812.1990332879418</v>
+        <v>804.5780233445246</v>
       </c>
       <c r="O46" t="n">
-        <v>974.9038003296498</v>
+        <v>967.2827903862326</v>
       </c>
       <c r="P46" t="n">
-        <v>1094.779966106228</v>
+        <v>1087.158956162811</v>
       </c>
       <c r="Q46" t="n">
-        <v>1098.202162476279</v>
+        <v>1090.581152532862</v>
       </c>
       <c r="R46" t="n">
         <v>1098.202162476279</v>
@@ -7976,22 +7976,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>263.7907196684351</v>
+        <v>117.6798379423461</v>
       </c>
       <c r="K2" t="n">
-        <v>143.0584031792374</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L2" t="n">
-        <v>651.5514946987026</v>
+        <v>153.2481697304917</v>
       </c>
       <c r="M2" t="n">
-        <v>675.2246400329154</v>
+        <v>668.5156360519577</v>
       </c>
       <c r="N2" t="n">
-        <v>149.1184913377841</v>
+        <v>667.9090757920145</v>
       </c>
       <c r="O2" t="n">
-        <v>594.0482827698827</v>
+        <v>265.1581056476064</v>
       </c>
       <c r="P2" t="n">
         <v>502.0059847475129</v>
@@ -8055,28 +8055,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J3" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K3" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L3" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M3" t="n">
-        <v>636.0828644837486</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N3" t="n">
-        <v>412.0456484611395</v>
+        <v>399.6446499995787</v>
       </c>
       <c r="O3" t="n">
-        <v>614.4252180716981</v>
+        <v>611.4781433431193</v>
       </c>
       <c r="P3" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q3" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R3" t="n">
         <v>71.01380490566048</v>
@@ -8216,16 +8216,16 @@
         <v>117.6798379423461</v>
       </c>
       <c r="K5" t="n">
-        <v>276.2476446788133</v>
+        <v>143.0584031792374</v>
       </c>
       <c r="L5" t="n">
         <v>651.5514946987026</v>
       </c>
       <c r="M5" t="n">
-        <v>693.4207940321639</v>
+        <v>555.6351118998375</v>
       </c>
       <c r="N5" t="n">
-        <v>682.2612020826953</v>
+        <v>667.9090757920145</v>
       </c>
       <c r="O5" t="n">
         <v>594.0482827698827</v>
@@ -8234,7 +8234,7 @@
         <v>150.3014472409252</v>
       </c>
       <c r="Q5" t="n">
-        <v>144.4986984183922</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R5" t="n">
         <v>102.5176150018526</v>
@@ -8301,13 +8301,13 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M6" t="n">
-        <v>636.0828644837486</v>
+        <v>611.1777065035423</v>
       </c>
       <c r="N6" t="n">
-        <v>629.0678552886034</v>
+        <v>604.162697308397</v>
       </c>
       <c r="O6" t="n">
-        <v>232.4345549924652</v>
+        <v>183.6305080413534</v>
       </c>
       <c r="P6" t="n">
         <v>87.08336481931465</v>
@@ -8453,22 +8453,22 @@
         <v>263.7907196684351</v>
       </c>
       <c r="K8" t="n">
-        <v>505.666843611017</v>
+        <v>324.3528815085492</v>
       </c>
       <c r="L8" t="n">
         <v>651.5514946987026</v>
       </c>
       <c r="M8" t="n">
-        <v>701.2411122488187</v>
+        <v>149.7250515977273</v>
       </c>
       <c r="N8" t="n">
-        <v>149.1184913377841</v>
+        <v>682.2612020826953</v>
       </c>
       <c r="O8" t="n">
         <v>594.0482827698827</v>
       </c>
       <c r="P8" t="n">
-        <v>302.3186727388648</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q8" t="n">
         <v>331.2113854294513</v>
@@ -8529,7 +8529,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J9" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K9" t="n">
         <v>412.5657697396227</v>
@@ -8544,7 +8544,7 @@
         <v>676.7842391234617</v>
       </c>
       <c r="O9" t="n">
-        <v>440.1969457594874</v>
+        <v>325.939387961783</v>
       </c>
       <c r="P9" t="n">
         <v>87.08336481931465</v>
@@ -8766,28 +8766,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J12" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K12" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L12" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M12" t="n">
-        <v>603.5495674056833</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N12" t="n">
         <v>747.7741039759435</v>
       </c>
       <c r="O12" t="n">
-        <v>614.4252180716981</v>
+        <v>212.2488719779076</v>
       </c>
       <c r="P12" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q12" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R12" t="n">
         <v>71.01380490566048</v>
@@ -8936,7 +8936,7 @@
         <v>701.2411122488187</v>
       </c>
       <c r="N14" t="n">
-        <v>682.2612020826954</v>
+        <v>682.2612020826953</v>
       </c>
       <c r="O14" t="n">
         <v>594.0482827698827</v>
@@ -9003,28 +9003,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J15" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K15" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L15" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M15" t="n">
-        <v>603.5495674056833</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N15" t="n">
         <v>747.7741039759435</v>
       </c>
       <c r="O15" t="n">
-        <v>614.4252180716981</v>
+        <v>212.2488719779076</v>
       </c>
       <c r="P15" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q15" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R15" t="n">
         <v>71.01380490566048</v>
@@ -9489,16 +9489,16 @@
         <v>726.4998994499999</v>
       </c>
       <c r="N21" t="n">
-        <v>630.6030013529515</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O21" t="n">
-        <v>92.68755888888889</v>
+        <v>212.2488719779076</v>
       </c>
       <c r="P21" t="n">
         <v>87.08336481931465</v>
       </c>
       <c r="Q21" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R21" t="n">
         <v>71.01380490566048</v>
@@ -9726,7 +9726,7 @@
         <v>726.4998994499999</v>
       </c>
       <c r="N24" t="n">
-        <v>630.6030013529515</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O24" t="n">
         <v>92.68755888888889</v>
@@ -9735,7 +9735,7 @@
         <v>87.08336481931465</v>
       </c>
       <c r="Q24" t="n">
-        <v>327.7205688679246</v>
+        <v>210.5494662449327</v>
       </c>
       <c r="R24" t="n">
         <v>71.01380490566048</v>
@@ -10200,16 +10200,16 @@
         <v>726.4998994499999</v>
       </c>
       <c r="N30" t="n">
-        <v>630.6030013529513</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O30" t="n">
-        <v>92.68755888888889</v>
+        <v>212.2488719779076</v>
       </c>
       <c r="P30" t="n">
         <v>87.08336481931465</v>
       </c>
       <c r="Q30" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R30" t="n">
         <v>71.01380490566048</v>
@@ -10440,10 +10440,10 @@
         <v>747.7741039759435</v>
       </c>
       <c r="O33" t="n">
-        <v>92.68755888888889</v>
+        <v>212.248871977908</v>
       </c>
       <c r="P33" t="n">
-        <v>206.6446779083334</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q33" t="n">
         <v>90.98815315591399</v>
@@ -10677,10 +10677,10 @@
         <v>747.7741039759435</v>
       </c>
       <c r="O36" t="n">
-        <v>92.68755888888889</v>
+        <v>212.2488719779076</v>
       </c>
       <c r="P36" t="n">
-        <v>206.6446779083334</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q36" t="n">
         <v>90.98815315591399</v>
@@ -10911,16 +10911,16 @@
         <v>726.4998994499999</v>
       </c>
       <c r="N39" t="n">
-        <v>630.6030013529515</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O39" t="n">
         <v>92.68755888888889</v>
       </c>
       <c r="P39" t="n">
-        <v>87.08336481931465</v>
+        <v>206.6446779083334</v>
       </c>
       <c r="Q39" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R39" t="n">
         <v>71.01380490566048</v>
@@ -11145,16 +11145,16 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M42" t="n">
-        <v>726.4998994499999</v>
+        <v>340.2745745069883</v>
       </c>
       <c r="N42" t="n">
-        <v>630.6030013529515</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O42" t="n">
-        <v>92.68755888888889</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P42" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q42" t="n">
         <v>327.7205688679246</v>
@@ -11385,16 +11385,16 @@
         <v>726.4998994499999</v>
       </c>
       <c r="N45" t="n">
-        <v>630.6030013529515</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O45" t="n">
         <v>92.68755888888889</v>
       </c>
       <c r="P45" t="n">
-        <v>87.08336481931465</v>
+        <v>206.6446779083334</v>
       </c>
       <c r="Q45" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R45" t="n">
         <v>71.01380490566048</v>
@@ -23270,13 +23270,13 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>337.9528155621449</v>
       </c>
       <c r="H11" t="n">
-        <v>249.7639075344423</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>65.87543334372791</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,22 +23306,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>93.77010711362794</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>182.1168898750155</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>1.487783659310224</v>
+        <v>267.6074288087848</v>
       </c>
       <c r="W11" t="n">
-        <v>296.2107322866635</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>283.6646094418577</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23413,25 +23413,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>112.2776261096564</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>97.42475435993875</v>
       </c>
       <c r="D13" t="n">
-        <v>82.99846957177849</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>21.01705847749115</v>
+        <v>82.92491162465758</v>
       </c>
       <c r="F13" t="n">
-        <v>84.67436304442487</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>95.493200966817</v>
+        <v>95.49320096681699</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>82.84545313338903</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23479,10 +23479,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>37.7723980853654</v>
       </c>
       <c r="Y13" t="n">
-        <v>149.8026281767912</v>
+        <v>149.8026281767911</v>
       </c>
     </row>
     <row r="14">
@@ -23492,16 +23492,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>177.7046091418036</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>318.1654340873667</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>327.479377239889</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -23510,10 +23510,10 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>249.7639075344423</v>
       </c>
       <c r="I14" t="n">
-        <v>65.87543334372791</v>
+        <v>65.87543334372789</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23549,13 +23549,13 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>182.1168898750154</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>95.25789077293793</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>296.2107322866635</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23650,13 +23650,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>112.2776261096564</v>
+        <v>112.2776261096563</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>82.99846957177847</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23665,13 +23665,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>95.493200966817</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>48.12170208582688</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,10 +23698,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>51.58366707901688</v>
       </c>
       <c r="S16" t="n">
-        <v>129.7096105845442</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23716,10 +23716,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>160.6612066001148</v>
+        <v>149.6009554097159</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>149.8026281767911</v>
       </c>
     </row>
     <row r="17">
@@ -23735,7 +23735,7 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>7.673861546209082e-13</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -25874,7 +25874,7 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>-6.536993168992922e-13</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
@@ -25931,7 +25931,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>-9.379164112033322e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>748987.4100946822</v>
+        <v>748987.4100946824</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>748987.4100946822</v>
+        <v>748987.4100946825</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>847561.2370387765</v>
+        <v>847561.2370387766</v>
       </c>
     </row>
     <row r="8">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>847561.2370387767</v>
+        <v>847561.2370387766</v>
       </c>
     </row>
   </sheetData>
@@ -26311,19 +26311,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>414764.0096147205</v>
+        <v>414764.0096147206</v>
       </c>
       <c r="C2" t="n">
+        <v>414764.0096147206</v>
+      </c>
+      <c r="D2" t="n">
         <v>414764.0096147208</v>
       </c>
-      <c r="D2" t="n">
-        <v>414764.0096147207</v>
-      </c>
       <c r="E2" t="n">
-        <v>366525.7538761219</v>
+        <v>366525.7538761217</v>
       </c>
       <c r="F2" t="n">
-        <v>366525.7538761218</v>
+        <v>366525.7538761217</v>
       </c>
       <c r="G2" t="n">
         <v>414764.0096147209</v>
@@ -26332,10 +26332,10 @@
         <v>414764.0096147209</v>
       </c>
       <c r="I2" t="n">
-        <v>414764.009614721</v>
+        <v>414764.0096147209</v>
       </c>
       <c r="J2" t="n">
-        <v>414764.0096147205</v>
+        <v>414764.0096147209</v>
       </c>
       <c r="K2" t="n">
         <v>414764.0096147205</v>
@@ -26344,7 +26344,7 @@
         <v>414764.0096147204</v>
       </c>
       <c r="M2" t="n">
-        <v>414764.0096147209</v>
+        <v>414764.009614721</v>
       </c>
       <c r="N2" t="n">
         <v>414764.0096147209</v>
@@ -26353,7 +26353,7 @@
         <v>414764.0096147209</v>
       </c>
       <c r="P2" t="n">
-        <v>414764.009614721</v>
+        <v>414764.0096147209</v>
       </c>
     </row>
     <row r="3">
@@ -26363,13 +26363,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>182204.9482918557</v>
+        <v>173858.657034055</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>14822.14031062204</v>
+        <v>22558.42953401354</v>
       </c>
       <c r="E3" t="n">
         <v>112122.5614740445</v>
@@ -26378,7 +26378,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>47425.32553668198</v>
+        <v>47425.32553668196</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,22 +26387,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>206802.1491945024</v>
+        <v>200285.8640399293</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>57301.47179728562</v>
+        <v>62456.24177539683</v>
       </c>
       <c r="M3" t="n">
-        <v>42200.82945962302</v>
+        <v>43252.52447081114</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>27767.69404277123</v>
+        <v>27767.69404277127</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,10 +26415,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>167206.1032243105</v>
+        <v>173918.2775005336</v>
       </c>
       <c r="C4" t="n">
-        <v>167206.1032243105</v>
+        <v>173918.2775005336</v>
       </c>
       <c r="D4" t="n">
         <v>154346.0890704043</v>
@@ -26439,13 +26439,13 @@
         <v>121843.4120153197</v>
       </c>
       <c r="J4" t="n">
-        <v>122593.9044797027</v>
+        <v>122593.9044797028</v>
       </c>
       <c r="K4" t="n">
         <v>122593.9044797028</v>
       </c>
       <c r="L4" t="n">
-        <v>122338.3305792194</v>
+        <v>122204.9359701647</v>
       </c>
       <c r="M4" t="n">
         <v>121843.4120153196</v>
@@ -26467,10 +26467,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>66684.30114001375</v>
+        <v>65170.06753481721</v>
       </c>
       <c r="C5" t="n">
-        <v>66684.30114001375</v>
+        <v>65170.06753481721</v>
       </c>
       <c r="D5" t="n">
         <v>69585.45727717315</v>
@@ -26497,7 +26497,7 @@
         <v>63659.0452539195</v>
       </c>
       <c r="L5" t="n">
-        <v>61795.73629173847</v>
+        <v>60823.19813315422</v>
       </c>
       <c r="M5" t="n">
         <v>58169.76931551966</v>
@@ -26506,7 +26506,7 @@
         <v>58169.76931551966</v>
       </c>
       <c r="O5" t="n">
-        <v>58169.76931551968</v>
+        <v>58169.76931551967</v>
       </c>
       <c r="P5" t="n">
         <v>58169.76931551966</v>
@@ -26519,19 +26519,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1331.343041459491</v>
+        <v>1817.007545314729</v>
       </c>
       <c r="C6" t="n">
-        <v>180873.6052503965</v>
+        <v>175675.6645793698</v>
       </c>
       <c r="D6" t="n">
-        <v>176010.3229565212</v>
+        <v>168274.0337331297</v>
       </c>
       <c r="E6" t="n">
-        <v>127132.6771784994</v>
+        <v>126922.9456318097</v>
       </c>
       <c r="F6" t="n">
-        <v>239255.2386525439</v>
+        <v>239045.5071058541</v>
       </c>
       <c r="G6" t="n">
         <v>187325.5027471996</v>
@@ -26540,28 +26540,28 @@
         <v>234750.8282838816</v>
       </c>
       <c r="I6" t="n">
+        <v>234750.8282838816</v>
+      </c>
+      <c r="J6" t="n">
+        <v>28225.19584116935</v>
+      </c>
+      <c r="K6" t="n">
+        <v>228511.0598810983</v>
+      </c>
+      <c r="L6" t="n">
+        <v>169279.6337360047</v>
+      </c>
+      <c r="M6" t="n">
+        <v>191498.3038130706</v>
+      </c>
+      <c r="N6" t="n">
         <v>234750.8282838817</v>
       </c>
-      <c r="J6" t="n">
-        <v>21708.91068659587</v>
-      </c>
-      <c r="K6" t="n">
-        <v>228511.0598810982</v>
-      </c>
-      <c r="L6" t="n">
-        <v>173328.470946477</v>
-      </c>
-      <c r="M6" t="n">
-        <v>192549.9988242586</v>
-      </c>
-      <c r="N6" t="n">
+      <c r="O6" t="n">
+        <v>206983.1342411104</v>
+      </c>
+      <c r="P6" t="n">
         <v>234750.8282838816</v>
-      </c>
-      <c r="O6" t="n">
-        <v>206983.1342411102</v>
-      </c>
-      <c r="P6" t="n">
-        <v>234750.8282838817</v>
       </c>
     </row>
   </sheetData>
@@ -26692,10 +26692,10 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="F2" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="G2" t="n">
         <v>130.3599693155844</v>
@@ -26707,13 +26707,13 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J2" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="K2" t="n">
         <v>93.99127447431646</v>
       </c>
       <c r="L2" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
       <c r="M2" t="n">
         <v>130.3599693155844</v>
@@ -26787,10 +26787,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>543.6957424344367</v>
+        <v>518.7905844542304</v>
       </c>
       <c r="C4" t="n">
-        <v>543.6957424344367</v>
+        <v>518.7905844542304</v>
       </c>
       <c r="D4" t="n">
         <v>591.4121262692951</v>
@@ -26808,16 +26808,16 @@
         <v>776.4890963014442</v>
       </c>
       <c r="I4" t="n">
-        <v>776.4890963014441</v>
+        <v>776.4890963014442</v>
       </c>
       <c r="J4" t="n">
-        <v>917.0607368443782</v>
+        <v>917.060736844378</v>
       </c>
       <c r="K4" t="n">
         <v>917.0607368443782</v>
       </c>
       <c r="L4" t="n">
-        <v>869.3443530095199</v>
+        <v>844.4391950293135</v>
       </c>
       <c r="M4" t="n">
         <v>776.4890963014441</v>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>59.28165692085247</v>
+        <v>59.28165692085246</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,22 +26929,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>34.70961755346399</v>
+        <v>34.70961755346406</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>71.62683974660703</v>
+        <v>78.07030221924603</v>
       </c>
       <c r="M2" t="n">
-        <v>24.02351201551336</v>
+        <v>17.58004954287432</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>34.70961755346404</v>
+        <v>34.70961755346408</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27009,13 +27009,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>543.6957424344367</v>
+        <v>518.7905844542304</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>47.71638383485833</v>
+        <v>72.62154181506469</v>
       </c>
       <c r="E4" t="n">
         <v>185.076970032149</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>684.2673829773709</v>
+        <v>659.3622249971642</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>92.22171332407316</v>
+        <v>117.1268713042796</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>59.28165692085247</v>
+        <v>59.28165692085246</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>34.70961755346399</v>
+        <v>34.70961755346406</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27255,13 +27255,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>543.6957424344367</v>
+        <v>518.7905844542304</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>47.71638383485833</v>
+        <v>72.62154181506469</v>
       </c>
       <c r="M4" t="n">
         <v>185.076970032149</v>
@@ -27376,25 +27376,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>376.579288659823</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27439,13 +27439,13 @@
         <v>338.6857412035168</v>
       </c>
       <c r="W2" t="n">
-        <v>367.2890446813954</v>
+        <v>110.1359611098958</v>
       </c>
       <c r="X2" t="n">
         <v>385.5580790162737</v>
       </c>
       <c r="Y2" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27455,7 +27455,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>9.963768703236781</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -27467,7 +27467,7 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>75.67705502764878</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27476,7 +27476,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>48.89338144820752</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27503,13 +27503,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>23.6778726709161</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>133.5813703291298</v>
       </c>
       <c r="T3" t="n">
-        <v>175.2139736830806</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -27534,10 +27534,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>154.0767819665104</v>
@@ -27549,13 +27549,13 @@
         <v>155.7526754391568</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H4" t="n">
         <v>153.923765528121</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J4" t="n">
         <v>30.07448747215907</v>
@@ -27588,22 +27588,22 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V4" t="n">
-        <v>185.1682590360552</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W4" t="n">
-        <v>280.4970980481341</v>
+        <v>192.544010557426</v>
       </c>
       <c r="X4" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27613,7 +27613,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>389.2437464820987</v>
@@ -27622,16 +27622,16 @@
         <v>381.5867174954989</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>155.7298101463229</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>320.8422199291742</v>
+        <v>80.76350759224582</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27661,7 +27661,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -27670,13 +27670,13 @@
         <v>221.2655964161775</v>
       </c>
       <c r="U5" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X5" t="n">
         <v>385.5580790162737</v>
@@ -27695,10 +27695,10 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>149.1476881355087</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>128.7880777047345</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -27749,10 +27749,10 @@
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>36.03005425080889</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>153.041601771168</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
@@ -27771,16 +27771,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>155.7526754391568</v>
@@ -27828,19 +27828,19 @@
         <v>233.3618613134482</v>
       </c>
       <c r="U7" t="n">
-        <v>165.708020294746</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>251.706951227729</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y7" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27850,25 +27850,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>389.2437464820987</v>
       </c>
       <c r="D8" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27898,10 +27898,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T8" t="n">
         <v>221.2655964161775</v>
@@ -27910,16 +27910,16 @@
         <v>253.1952022697474</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W8" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>303.6314343780413</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>185.5653192254552</v>
       </c>
     </row>
     <row r="9">
@@ -28008,7 +28008,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>24.04094380275524</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C10" t="n">
         <v>168.5030667546707</v>
@@ -28065,19 +28065,19 @@
         <v>233.3618613134482</v>
       </c>
       <c r="U10" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>165.7080202947459</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="11">
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="C11" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="D11" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="E11" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="F11" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="G11" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="H11" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="I11" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S11" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="T11" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="U11" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="V11" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="W11" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="X11" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="Y11" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="C13" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="D13" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="E13" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="F13" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="G13" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="H13" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="I13" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="J13" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="K13" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="L13" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="M13" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="N13" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="O13" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="P13" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="Q13" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="R13" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="S13" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="T13" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="U13" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="V13" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="W13" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="X13" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="Y13" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="C14" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="D14" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="E14" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="F14" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="G14" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="H14" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="I14" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S14" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="T14" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="U14" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="V14" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="W14" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="X14" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="Y14" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="C16" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="D16" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="E16" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="F16" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="G16" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="H16" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="I16" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="J16" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="K16" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="L16" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="M16" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="N16" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="O16" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="P16" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="Q16" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="R16" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="S16" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="T16" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="U16" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="V16" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="W16" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="X16" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="Y16" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
     </row>
     <row r="17">
@@ -28746,16 +28746,16 @@
         <v>30.07448747215907</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="L19" t="n">
-        <v>130.3599693155844</v>
+        <v>0</v>
       </c>
       <c r="M19" t="n">
         <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>5.636002634529149</v>
+        <v>5.636002634529035</v>
       </c>
       <c r="O19" t="n">
         <v>0</v>
@@ -28840,7 +28840,7 @@
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>6.821210263296962e-13</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
         <v>0</v>
@@ -28980,7 +28980,7 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J22" t="n">
-        <v>30.07448747215907</v>
+        <v>35.7104901066881</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -28989,16 +28989,16 @@
         <v>0</v>
       </c>
       <c r="M22" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" t="n">
         <v>130.3599693155844</v>
       </c>
-      <c r="N22" t="n">
-        <v>0</v>
-      </c>
       <c r="O22" t="n">
         <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>5.636002634529063</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -29080,7 +29080,7 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>6.252776074688882e-13</v>
       </c>
       <c r="R23" t="n">
         <v>37.61298457733328</v>
@@ -29089,7 +29089,7 @@
         <v>130.3599693155844</v>
       </c>
       <c r="T23" t="n">
-        <v>130.3599693155846</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="U23" t="n">
         <v>130.3599693155844</v>
@@ -29217,13 +29217,13 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J25" t="n">
-        <v>30.07448747215907</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>130.3599693155844</v>
+        <v>35.7104901066887</v>
       </c>
       <c r="M25" t="n">
         <v>0</v>
@@ -29235,7 +29235,7 @@
         <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>5.636002634529063</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
@@ -29272,49 +29272,49 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="C26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="D26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="E26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="F26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="G26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="H26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="I26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="J26" t="n">
-        <v>93.99127447431646</v>
+        <v>86.6505275559943</v>
       </c>
       <c r="K26" t="n">
-        <v>86.65052755599521</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="N26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="O26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="P26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
@@ -29323,25 +29323,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="T26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="U26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="V26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="W26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="X26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="Y26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="C28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="D28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="E28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="F28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="G28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="H28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="I28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="J28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="K28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="L28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="M28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="N28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="O28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="P28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="Q28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="R28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="S28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="T28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="U28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="V28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="W28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="X28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="Y28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
     </row>
     <row r="29">
@@ -29533,10 +29533,10 @@
         <v>93.99127447431646</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>86.65052755599524</v>
       </c>
       <c r="K29" t="n">
-        <v>30.27223765901209</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
         <v>93.99127447431646</v>
@@ -29545,10 +29545,10 @@
         <v>93.99127447431646</v>
       </c>
       <c r="N29" t="n">
+        <v>0</v>
+      </c>
+      <c r="O29" t="n">
         <v>93.99127447431646</v>
-      </c>
-      <c r="O29" t="n">
-        <v>0</v>
       </c>
       <c r="P29" t="n">
         <v>93.99127447431646</v>
@@ -29557,7 +29557,7 @@
         <v>93.99127447431646</v>
       </c>
       <c r="R29" t="n">
-        <v>93.99127447431646</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S29" t="n">
         <v>93.99127447431646</v>
@@ -29746,37 +29746,37 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
       <c r="C32" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
       <c r="D32" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
       <c r="E32" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
       <c r="F32" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
       <c r="G32" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
       <c r="H32" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
       <c r="I32" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
       <c r="J32" t="n">
-        <v>86.27291196566262</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>106.336457300071</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
@@ -29788,34 +29788,34 @@
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>112.77991977271</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>43.49509683159843</v>
       </c>
       <c r="R32" t="n">
-        <v>106.336457300071</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S32" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
       <c r="T32" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
       <c r="U32" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
       <c r="V32" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
       <c r="W32" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
       <c r="X32" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
       <c r="Y32" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
       <c r="C34" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
       <c r="D34" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
       <c r="E34" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
       <c r="F34" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
       <c r="G34" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
       <c r="H34" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
       <c r="I34" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
       <c r="J34" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
       <c r="K34" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
       <c r="L34" t="n">
-        <v>18.71446861253912</v>
+        <v>106.8683420224714</v>
       </c>
       <c r="M34" t="n">
-        <v>106.336457300071</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>106.336457300071</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>106.336457300071</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>112.77991977271</v>
       </c>
       <c r="R34" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
       <c r="S34" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
       <c r="T34" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
       <c r="U34" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
       <c r="V34" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
       <c r="W34" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
       <c r="X34" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
       <c r="Y34" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
     </row>
     <row r="35">
@@ -30174,7 +30174,7 @@
         <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>0</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="N37" t="n">
         <v>0</v>
@@ -30183,13 +30183,13 @@
         <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>128.2979821082778</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>130.3599693155844</v>
+        <v>128.2979821082783</v>
       </c>
       <c r="S37" t="n">
         <v>130.3599693155844</v>
@@ -30405,7 +30405,7 @@
         <v>30.07448747215907</v>
       </c>
       <c r="K40" t="n">
-        <v>5.636002634528808</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
         <v>0</v>
@@ -30417,13 +30417,13 @@
         <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>0</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="P40" t="n">
-        <v>0</v>
+        <v>5.636002634529063</v>
       </c>
       <c r="Q40" t="n">
-        <v>130.3599693155844</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
         <v>122.6619794737488</v>
@@ -30487,7 +30487,7 @@
         <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>8.526512829121202e-13</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
@@ -30496,7 +30496,7 @@
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>1.023181539494544e-12</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
         <v>0</v>
@@ -30639,10 +30639,10 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J43" t="n">
-        <v>35.71049010668695</v>
+        <v>35.71049010668767</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="L43" t="n">
         <v>0</v>
@@ -30654,7 +30654,7 @@
         <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>130.3599693155844</v>
+        <v>0</v>
       </c>
       <c r="P43" t="n">
         <v>0</v>
@@ -30879,28 +30879,28 @@
         <v>30.07448747215907</v>
       </c>
       <c r="K46" t="n">
-        <v>5.636002634528168</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>128.297982108277</v>
       </c>
       <c r="M46" t="n">
+        <v>0</v>
+      </c>
+      <c r="N46" t="n">
+        <v>0</v>
+      </c>
+      <c r="O46" t="n">
+        <v>0</v>
+      </c>
+      <c r="P46" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>0</v>
+      </c>
+      <c r="R46" t="n">
         <v>130.3599693155844</v>
-      </c>
-      <c r="N46" t="n">
-        <v>0</v>
-      </c>
-      <c r="O46" t="n">
-        <v>0</v>
-      </c>
-      <c r="P46" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q46" t="n">
-        <v>0</v>
-      </c>
-      <c r="R46" t="n">
-        <v>122.6619794737488</v>
       </c>
       <c r="S46" t="n">
         <v>130.3599693155844</v>
@@ -31771,7 +31771,7 @@
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-13</v>
       </c>
       <c r="O11" t="n">
         <v>0</v>
@@ -32482,7 +32482,7 @@
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>1.023181539494544e-12</v>
       </c>
       <c r="O20" t="n">
         <v>0</v>
@@ -34696,22 +34696,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>146.110881726089</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L2" t="n">
-        <v>498.303324968211</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>525.4995884351881</v>
+        <v>518.7905844542304</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>518.7905844542304</v>
       </c>
       <c r="O2" t="n">
-        <v>444.4844453457863</v>
+        <v>115.59426822351</v>
       </c>
       <c r="P2" t="n">
         <v>351.7045375065877</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M3" t="n">
-        <v>543.6957424344367</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>326.6735356069729</v>
+        <v>314.2725371454121</v>
       </c>
       <c r="O3" t="n">
-        <v>521.7376591828091</v>
+        <v>518.7905844542304</v>
       </c>
       <c r="P3" t="n">
         <v>409.7185542589873</v>
       </c>
       <c r="Q3" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34936,16 +34936,16 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>133.189241499576</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
         <v>498.303324968211</v>
       </c>
       <c r="M5" t="n">
-        <v>543.6957424344367</v>
+        <v>405.9100603021103</v>
       </c>
       <c r="N5" t="n">
-        <v>533.1427107449111</v>
+        <v>518.7905844542304</v>
       </c>
       <c r="O5" t="n">
         <v>444.4844453457863</v>
@@ -34954,7 +34954,7 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35021,13 +35021,13 @@
         <v>488.450591816478</v>
       </c>
       <c r="M6" t="n">
-        <v>543.6957424344367</v>
+        <v>518.7905844542304</v>
       </c>
       <c r="N6" t="n">
-        <v>543.6957424344367</v>
+        <v>518.7905844542304</v>
       </c>
       <c r="O6" t="n">
-        <v>139.7469961035763</v>
+        <v>90.94294915246452</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
@@ -35173,22 +35173,22 @@
         <v>146.110881726089</v>
       </c>
       <c r="K8" t="n">
-        <v>362.6084404317796</v>
+        <v>181.2944783293118</v>
       </c>
       <c r="L8" t="n">
         <v>498.303324968211</v>
       </c>
       <c r="M8" t="n">
-        <v>551.5160606510915</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>533.1427107449111</v>
       </c>
       <c r="O8" t="n">
         <v>444.4844453457863</v>
       </c>
       <c r="P8" t="n">
-        <v>152.0172254979396</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q8" t="n">
         <v>186.7126870110591</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K9" t="n">
         <v>322.9688344062893</v>
@@ -35264,7 +35264,7 @@
         <v>591.4121262692951</v>
       </c>
       <c r="O9" t="n">
-        <v>347.5093868705986</v>
+        <v>233.2518290728942</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
@@ -35419,7 +35419,7 @@
         <v>551.5160606510915</v>
       </c>
       <c r="N11" t="n">
-        <v>533.1427107449111</v>
+        <v>533.1427107449113</v>
       </c>
       <c r="O11" t="n">
         <v>444.4844453457863</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M12" t="n">
-        <v>511.1624453563714</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N12" t="n">
         <v>662.4019911217769</v>
       </c>
       <c r="O12" t="n">
-        <v>521.7376591828091</v>
+        <v>119.5613130890187</v>
       </c>
       <c r="P12" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>41.00382492257284</v>
+        <v>41.00382492257285</v>
       </c>
       <c r="K13" t="n">
         <v>153.7399700815419</v>
@@ -35586,7 +35586,7 @@
         <v>192.1653485326901</v>
       </c>
       <c r="Q13" t="n">
-        <v>74.53507640488439</v>
+        <v>74.53507640488441</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35656,7 +35656,7 @@
         <v>551.5160606510915</v>
       </c>
       <c r="N14" t="n">
-        <v>533.1427107449113</v>
+        <v>533.1427107449111</v>
       </c>
       <c r="O14" t="n">
         <v>444.4844453457863</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M15" t="n">
-        <v>511.1624453563714</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N15" t="n">
         <v>662.4019911217769</v>
       </c>
       <c r="O15" t="n">
-        <v>521.7376591828091</v>
+        <v>119.5613130890187</v>
       </c>
       <c r="P15" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>41.00382492257284</v>
+        <v>41.00382492257285</v>
       </c>
       <c r="K16" t="n">
         <v>153.7399700815419</v>
@@ -35823,7 +35823,7 @@
         <v>192.1653485326901</v>
       </c>
       <c r="Q16" t="n">
-        <v>74.53507640488439</v>
+        <v>74.53507640488441</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -36042,16 +36042,16 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>82.66165768680997</v>
+        <v>213.0216270023944</v>
       </c>
       <c r="L19" t="n">
-        <v>296.1454641376043</v>
+        <v>165.78549482202</v>
       </c>
       <c r="M19" t="n">
         <v>188.1733114527919</v>
       </c>
       <c r="N19" t="n">
-        <v>190.6760370094879</v>
+        <v>190.6760370094878</v>
       </c>
       <c r="O19" t="n">
         <v>164.3482495370789</v>
@@ -36130,13 +36130,13 @@
         <v>551.5160606510915</v>
       </c>
       <c r="N20" t="n">
-        <v>533.1427107449111</v>
+        <v>533.1427107449122</v>
       </c>
       <c r="O20" t="n">
         <v>444.4844453457863</v>
       </c>
       <c r="P20" t="n">
-        <v>351.7045375065884</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q20" t="n">
         <v>186.7126870110591</v>
@@ -36209,16 +36209,16 @@
         <v>634.1127774006881</v>
       </c>
       <c r="N21" t="n">
-        <v>545.2308884987849</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>119.5613130890187</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,7 +36276,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>5.63600263452903</v>
       </c>
       <c r="K22" t="n">
         <v>82.66165768680997</v>
@@ -36285,16 +36285,16 @@
         <v>165.78549482202</v>
       </c>
       <c r="M22" t="n">
-        <v>318.5332807683764</v>
+        <v>188.1733114527919</v>
       </c>
       <c r="N22" t="n">
-        <v>185.0400343749588</v>
+        <v>315.4000036905431</v>
       </c>
       <c r="O22" t="n">
         <v>164.3482495370789</v>
       </c>
       <c r="P22" t="n">
-        <v>126.7230387724872</v>
+        <v>121.0870361379582</v>
       </c>
       <c r="Q22" t="n">
         <v>3.456764010152483</v>
@@ -36376,7 +36376,7 @@
         <v>351.7045375065877</v>
       </c>
       <c r="Q23" t="n">
-        <v>186.7126870110591</v>
+        <v>186.7126870110598</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -36446,7 +36446,7 @@
         <v>634.1127774006881</v>
       </c>
       <c r="N24" t="n">
-        <v>545.2308884987849</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -36455,7 +36455,7 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>236.7324157120106</v>
+        <v>119.5613130890187</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,13 +36513,13 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>100.2854818434253</v>
       </c>
       <c r="K25" t="n">
         <v>82.66165768680997</v>
       </c>
       <c r="L25" t="n">
-        <v>296.1454641376043</v>
+        <v>201.4959849287087</v>
       </c>
       <c r="M25" t="n">
         <v>188.1733114527919</v>
@@ -36531,7 +36531,7 @@
         <v>164.3482495370789</v>
       </c>
       <c r="P25" t="n">
-        <v>126.7230387724872</v>
+        <v>121.0870361379582</v>
       </c>
       <c r="Q25" t="n">
         <v>3.456764010152483</v>
@@ -36592,16 +36592,16 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>240.1021562004054</v>
+        <v>232.7614092820833</v>
       </c>
       <c r="K26" t="n">
-        <v>449.2589679877748</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L26" t="n">
         <v>592.2945994425274</v>
       </c>
       <c r="M26" t="n">
-        <v>551.5160606510915</v>
+        <v>645.507335125408</v>
       </c>
       <c r="N26" t="n">
         <v>627.1339852192276</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>63.91678700215738</v>
+        <v>63.91678700215741</v>
       </c>
       <c r="K28" t="n">
         <v>176.6529321611264</v>
@@ -36768,10 +36768,10 @@
         <v>258.3395240113953</v>
       </c>
       <c r="P28" t="n">
-        <v>215.0783106122746</v>
+        <v>215.0783106122747</v>
       </c>
       <c r="Q28" t="n">
-        <v>97.44803848446894</v>
+        <v>97.44803848446897</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,10 +36829,10 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>146.110881726089</v>
+        <v>232.7614092820842</v>
       </c>
       <c r="K29" t="n">
-        <v>392.8806780907917</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L29" t="n">
         <v>592.2945994425274</v>
@@ -36841,10 +36841,10 @@
         <v>645.507335125408</v>
       </c>
       <c r="N29" t="n">
-        <v>627.1339852192276</v>
+        <v>533.1427107449111</v>
       </c>
       <c r="O29" t="n">
-        <v>444.4844453457863</v>
+        <v>538.4757198201028</v>
       </c>
       <c r="P29" t="n">
         <v>445.6958119809042</v>
@@ -36853,7 +36853,7 @@
         <v>280.7039614853756</v>
       </c>
       <c r="R29" t="n">
-        <v>56.37828989698318</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36920,16 +36920,16 @@
         <v>634.1127774006881</v>
       </c>
       <c r="N30" t="n">
-        <v>545.2308884987847</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>119.5613130890187</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37066,13 +37066,13 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>232.3837936917516</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K32" t="n">
-        <v>468.9448977318506</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L32" t="n">
-        <v>604.639782268282</v>
+        <v>611.083244740921</v>
       </c>
       <c r="M32" t="n">
         <v>551.5160606510915</v>
@@ -37084,13 +37084,13 @@
         <v>444.4844453457863</v>
       </c>
       <c r="P32" t="n">
-        <v>351.7045375065877</v>
+        <v>464.4844572792978</v>
       </c>
       <c r="Q32" t="n">
-        <v>186.7126870110591</v>
+        <v>230.2077838426576</v>
       </c>
       <c r="R32" t="n">
-        <v>68.72347272273774</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37160,10 +37160,10 @@
         <v>662.4019911217769</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>119.5613130890192</v>
       </c>
       <c r="P33" t="n">
-        <v>119.5613130890187</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>76.26196982791194</v>
+        <v>82.70543230055097</v>
       </c>
       <c r="K34" t="n">
-        <v>188.998114986881</v>
+        <v>195.44157745952</v>
       </c>
       <c r="L34" t="n">
-        <v>184.4999634345591</v>
+        <v>272.6538368444914</v>
       </c>
       <c r="M34" t="n">
-        <v>294.509768752863</v>
+        <v>188.1733114527919</v>
       </c>
       <c r="N34" t="n">
-        <v>291.3764916750298</v>
+        <v>185.0400343749588</v>
       </c>
       <c r="O34" t="n">
-        <v>270.6847068371499</v>
+        <v>164.3482495370789</v>
       </c>
       <c r="P34" t="n">
         <v>121.0870361379582</v>
       </c>
       <c r="Q34" t="n">
-        <v>3.456764010152483</v>
+        <v>116.2366837828625</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37397,10 +37397,10 @@
         <v>662.4019911217769</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>119.5613130890187</v>
       </c>
       <c r="P36" t="n">
-        <v>119.5613130890187</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37470,7 +37470,7 @@
         <v>165.78549482202</v>
       </c>
       <c r="M37" t="n">
-        <v>188.1733114527919</v>
+        <v>318.5332807683763</v>
       </c>
       <c r="N37" t="n">
         <v>185.0400343749588</v>
@@ -37479,13 +37479,13 @@
         <v>164.3482495370789</v>
       </c>
       <c r="P37" t="n">
-        <v>249.385018246236</v>
+        <v>121.0870361379582</v>
       </c>
       <c r="Q37" t="n">
         <v>3.456764010152483</v>
       </c>
       <c r="R37" t="n">
-        <v>7.697989841835579</v>
+        <v>5.636002634529554</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -37631,16 +37631,16 @@
         <v>634.1127774006881</v>
       </c>
       <c r="N39" t="n">
-        <v>545.2308884987849</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>119.5613130890187</v>
       </c>
       <c r="Q39" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37701,7 +37701,7 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>88.29766032133878</v>
+        <v>82.66165768680997</v>
       </c>
       <c r="L40" t="n">
         <v>165.78549482202</v>
@@ -37713,13 +37713,13 @@
         <v>185.0400343749588</v>
       </c>
       <c r="O40" t="n">
-        <v>164.3482495370789</v>
+        <v>294.7082188526632</v>
       </c>
       <c r="P40" t="n">
-        <v>121.0870361379582</v>
+        <v>126.7230387724872</v>
       </c>
       <c r="Q40" t="n">
-        <v>133.8167333257369</v>
+        <v>3.456764010152483</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37783,7 +37783,7 @@
         <v>362.6084404317796</v>
       </c>
       <c r="L41" t="n">
-        <v>498.303324968211</v>
+        <v>498.3033249682118</v>
       </c>
       <c r="M41" t="n">
         <v>551.5160606510915</v>
@@ -37792,7 +37792,7 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O41" t="n">
-        <v>444.4844453457873</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P41" t="n">
         <v>351.7045375065877</v>
@@ -37865,16 +37865,16 @@
         <v>488.450591816478</v>
       </c>
       <c r="M42" t="n">
-        <v>634.1127774006881</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="N42" t="n">
-        <v>545.2308884987849</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q42" t="n">
         <v>236.7324157120106</v>
@@ -37935,10 +37935,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>5.636002634527881</v>
+        <v>5.636002634528599</v>
       </c>
       <c r="K43" t="n">
-        <v>82.66165768680997</v>
+        <v>213.0216270023944</v>
       </c>
       <c r="L43" t="n">
         <v>165.78549482202</v>
@@ -37950,7 +37950,7 @@
         <v>185.0400343749588</v>
       </c>
       <c r="O43" t="n">
-        <v>294.7082188526633</v>
+        <v>164.3482495370789</v>
       </c>
       <c r="P43" t="n">
         <v>121.0870361379582</v>
@@ -38105,16 +38105,16 @@
         <v>634.1127774006881</v>
       </c>
       <c r="N45" t="n">
-        <v>545.2308884987849</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>119.5613130890187</v>
       </c>
       <c r="Q45" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38175,13 +38175,13 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>88.29766032133814</v>
+        <v>82.66165768680997</v>
       </c>
       <c r="L46" t="n">
-        <v>165.78549482202</v>
+        <v>294.083476930297</v>
       </c>
       <c r="M46" t="n">
-        <v>318.5332807683764</v>
+        <v>188.1733114527919</v>
       </c>
       <c r="N46" t="n">
         <v>185.0400343749588</v>
@@ -38196,7 +38196,7 @@
         <v>3.456764010152483</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>7.697989841835636</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
